--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33E896-220A-478B-B03C-A055A0F85776}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67238034-1D7C-4A75-8959-1FB517DE74F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,32 +217,32 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +522,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,37 +535,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -594,7 +594,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3">
@@ -617,7 +617,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3">
@@ -640,7 +640,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3">
@@ -663,9 +663,11 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -674,7 +676,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
@@ -685,7 +687,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -696,7 +698,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
@@ -707,7 +709,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
@@ -718,7 +720,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
@@ -729,26 +731,26 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67238034-1D7C-4A75-8959-1FB517DE74F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -20,11 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>2019年度周工作计划</t>
+  </si>
   <si>
     <t>部门</t>
   </si>
   <si>
+    <t>技术部</t>
+  </si>
+  <si>
+    <t>日期：3.18-3.22</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -49,64 +55,44 @@
     <t>上级意见</t>
   </si>
   <si>
+    <t>乔健</t>
+  </si>
+  <si>
+    <t>会员系统问题处理</t>
+  </si>
+  <si>
     <t>主要</t>
   </si>
   <si>
+    <t>周一、周二</t>
+  </si>
+  <si>
+    <t>专家库注册登录接口开发，前后台联调</t>
+  </si>
+  <si>
+    <t>周二-周四</t>
+  </si>
+  <si>
+    <t>专家库发布活动、活动查询接口开发</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2019年度周工作计划</t>
-  </si>
-  <si>
-    <t>技术部</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员系统问题处理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一、周二</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二-周四</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家库注册登录接口开发，前后台联调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家库发布活动、活动查询接口开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：3.18-3.22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔健</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,32 +121,355 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -192,13 +501,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,56 +757,97 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,19 +1105,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
@@ -534,234 +1126,234 @@
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" ht="35.65" customHeight="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+    <row r="4" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8">
+        <v>123</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:9">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -88,11 +88,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,79 +121,112 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,14 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -228,9 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,6 +278,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,13 +308,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,43 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,109 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,11 +496,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,26 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,8 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,137 +613,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,16 +762,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -786,7 +777,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,7 +1128,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="13"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
       <c r="A2" s="4"/>
@@ -1186,59 +1177,59 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5"/>
@@ -1248,88 +1239,88 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:9">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="8">
-        <v>123</v>
+      <c r="C7" s="7">
+        <v>123456</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:9">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:9">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -1338,11 +1329,11 @@
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4CB1D-AD1D-48E0-8A74-D671121D8AA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC36062-074D-444F-8672-432404BF1E53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>123456来了</t>
+    <t>sss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC36062-074D-444F-8672-432404BF1E53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214EBA4-34C9-49CD-B83E-7A7A8C46E9EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,8 +641,8 @@
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
+      <c r="C7" s="6">
+        <v>1</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214EBA4-34C9-49CD-B83E-7A7A8C46E9EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20730" windowHeight="8100" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -83,6 +77,9 @@
   </si>
   <si>
     <t>周五</t>
+  </si>
+  <si>
+    <t>1阿斯蒂芬和经济</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -91,8 +88,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,21 +128,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -171,13 +498,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +755,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -211,27 +783,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,19 +1099,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
@@ -510,225 +1120,225 @@
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" ht="35.65" customHeight="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+    <row r="8" ht="21" customHeight="1" spans="1:9">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+    <row r="9" ht="21" customHeight="1" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+    <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+    <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+    <row r="12" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+    <row r="13" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+    <row r="14" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -736,8 +1346,8 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACE289-BDAE-4773-BB0D-1D3B16D60E39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3759FA3-744B-46EE-BA3F-5D86DE94CA35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,9 @@
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>111</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3759FA3-744B-46EE-BA3F-5D86DE94CA35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF9F187-211D-499F-9800-04EC7358E4BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -31,9 +31,6 @@
     <t>技术部</t>
   </si>
   <si>
-    <t>日期：3.18-3.22</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -64,28 +61,45 @@
     <t>乔健</t>
   </si>
   <si>
-    <t>会员系统问题处理</t>
-  </si>
-  <si>
     <t>主要</t>
   </si>
   <si>
-    <t>周一、周二</t>
-  </si>
-  <si>
-    <t>专家库注册登录接口开发，前后台联调</t>
-  </si>
-  <si>
     <t>周二-周四</t>
   </si>
   <si>
-    <t>专家库发布活动、活动查询接口开发</t>
-  </si>
-  <si>
-    <t>周五</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>增加redis配置，存储发送验证码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加活动列表查询接口、活动报名反馈接口，修改登录接口，增加返回值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加退出接口，活动发布接口增加时间校验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开发完接口前后台联调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二-周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：3.25-3.29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -171,13 +185,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +270,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,12 +561,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
@@ -535,56 +598,56 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -592,22 +655,20 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -616,9 +677,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="16"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -627,10 +686,10 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -639,15 +698,23 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6">
-        <v>111</v>
+      <c r="A7" s="17"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
@@ -720,7 +787,7 @@
     <row r="14" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
@@ -731,10 +798,11 @@
       <c r="I14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF9F187-211D-499F-9800-04EC7358E4BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -31,6 +25,9 @@
     <t>技术部</t>
   </si>
   <si>
+    <t>日期：3.25-3.29</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -61,52 +58,68 @@
     <t>乔健</t>
   </si>
   <si>
+    <t>增加redis配置，存储发送验证码</t>
+  </si>
+  <si>
     <t>主要</t>
   </si>
   <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>增加活动列表查询接口、活动报名反馈接口，修改登录接口，增加返回值</t>
+  </si>
+  <si>
     <t>周二-周四</t>
   </si>
   <si>
+    <t>增加退出接口，活动发布接口增加时间校验</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>已开发完接口前后台联调</t>
+  </si>
+  <si>
+    <t>周二-周五</t>
+  </si>
+  <si>
+    <t>胥涛</t>
+  </si>
+  <si>
+    <t>修改了会员系统页面，专委会，-活动发布，报名接口</t>
+  </si>
+  <si>
+    <t>修改了会员系统专委会，数据库表结构和专家申请</t>
+  </si>
+  <si>
+    <t>周二-周三</t>
+  </si>
+  <si>
+    <t>增加专家申请，待处理任务，已处理任务接口</t>
+  </si>
+  <si>
+    <t>专家申请审核和退回</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>增加redis配置，存储发送验证码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加活动列表查询接口、活动报名反馈接口，修改登录接口，增加返回值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加退出接口，活动发布接口增加时间校验</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已开发完接口前后台联调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二-周五</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：3.25-3.29</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,21 +152,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -174,15 +511,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -222,13 +550,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +816,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -247,14 +832,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,39 +862,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,260 +1178,303 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="32.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" ht="35.65" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" spans="1:9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="9" ht="31" customHeight="1" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+    <row r="12" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+    <row r="13" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+    <row r="14" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A7B37-9C01-4376-9C41-FA5D0DFA7CFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4C739-B002-4E83-8071-D482E0ECE1FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>专家基本信息的添加和修改，并修改数据库表字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -361,6 +365,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,15 +399,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +679,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,17 +692,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -708,14 +712,14 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -747,7 +751,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -770,7 +774,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -791,7 +795,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -833,7 +837,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5">
@@ -856,7 +860,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -877,7 +881,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -898,7 +902,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -919,7 +923,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -942,7 +946,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -963,7 +967,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="11">
         <v>3</v>
       </c>
@@ -980,11 +984,13 @@
       <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4C739-B002-4E83-8071-D482E0ECE1FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70B94B-1865-43AC-9588-A47323DE16A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -153,6 +153,30 @@
   <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+  </si>
+  <si>
+    <t>会员到期提醒功能</t>
+  </si>
+  <si>
+    <t>周一、周二</t>
+  </si>
+  <si>
+    <t>会员系统消息管理bug修复</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>会员系统新功能需求编写，专委会信息管理</t>
+  </si>
+  <si>
+    <t>周四、五</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -310,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +424,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,8 +1040,76 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70B94B-1865-43AC-9588-A47323DE16A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1D5ED-63AD-45F5-AA9D-C9C9D145940D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
+    <sheet name="4.8-4.12" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -177,6 +178,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>增加管理端登录接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,6 +394,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,21 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,17 +727,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -742,14 +747,14 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -781,7 +786,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -804,7 +809,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -825,7 +830,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -846,7 +851,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -867,7 +872,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5">
@@ -890,7 +895,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -911,7 +916,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -932,7 +937,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -953,7 +958,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -976,7 +981,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -997,7 +1002,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="11">
         <v>3</v>
       </c>
@@ -1020,7 +1025,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -1041,13 +1046,13 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="14"/>
@@ -1057,18 +1062,18 @@
       <c r="F16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="19">
         <v>1</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="14"/>
@@ -1078,18 +1083,18 @@
       <c r="F17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="19">
         <v>1</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="14"/>
@@ -1099,7 +1104,7 @@
       <c r="F18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="19">
         <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -1121,4 +1126,149 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E28BC-44FB-4AE8-B8AE-BF2F4C1E4598}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1D5ED-63AD-45F5-AA9D-C9C9D145940D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DF039F-94D5-4FA3-A210-10CEDFA3FC9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>增加管理端登录接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库接口联调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二-周三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>去协会、数据中心确认会员系统修改内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统修改内容工作确认，需求确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三-周四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1157,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,11 +1251,17 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
@@ -1240,10 +1270,14 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1253,10 +1287,14 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DF039F-94D5-4FA3-A210-10CEDFA3FC9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38730FED-8398-4B4E-A583-0EC3F7F48BD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
     <sheet name="4.8-4.12" sheetId="14" r:id="rId2"/>
+    <sheet name="4.15-4.19" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -363,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +424,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,17 +755,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -771,14 +775,14 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -810,7 +814,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -833,7 +837,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -854,7 +858,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -875,7 +879,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5">
@@ -919,7 +923,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -940,7 +944,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -982,7 +986,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -1005,7 +1009,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="11">
         <v>3</v>
       </c>
@@ -1049,7 +1053,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -1070,7 +1074,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14">
@@ -1093,7 +1097,7 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="14">
         <v>2</v>
       </c>
@@ -1114,7 +1118,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="14">
         <v>3</v>
       </c>
@@ -1157,7 +1161,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1167,17 +1171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -1187,14 +1191,14 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1226,7 +1230,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -1247,7 +1251,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -1283,7 +1287,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -1298,6 +1302,165 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE5F0E7-D995-4862-AB6C-373BC8D0B1B6}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B76F3C-C0F2-4515-A1EF-048C25977E3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5CBC3-8642-46C0-919A-2209B903E8C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,11 +200,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>周四-周五</t>
+    <t>修改专家库的站内信接口，并熟悉和分析专家库管理端的模块接口需求</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>修改专家库的站内信接口，并熟悉和分析专家库管理端的模块接口需求</t>
+    <t>周四，周五</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -490,6 +490,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,9 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,17 +823,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -843,14 +843,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -905,7 +905,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -991,7 +991,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1077,7 +1077,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="16">
@@ -1165,7 +1165,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="16">
         <v>3</v>
       </c>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1239,17 +1239,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1259,14 +1259,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1298,7 +1298,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1319,7 +1319,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1393,7 +1393,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="A12" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="27">
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1467,12 +1467,12 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="20">
         <v>2</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -1486,8 +1486,8 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="39">
+      <c r="A14" s="32"/>
+      <c r="B14" s="27">
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -1496,7 +1496,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="19">
         <v>1</v>
@@ -1505,10 +1505,10 @@
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1540,17 +1540,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1560,14 +1560,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1620,7 +1620,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5CBC3-8642-46C0-919A-2209B903E8C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A4788-BB2F-4C5B-B691-57317341E79F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>修改基本信息添加功能,修改字段,以及添加忘记密码接口</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>查找实现信息导入Excel表格，以及Excel表格信息导入数据库</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>周四，周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改基本信息添加功能,修改字段,以及添加忘记密码接口。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="22"/>
@@ -1472,12 +1472,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="19">
         <v>1</v>
@@ -1491,12 +1491,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="19">
         <v>1</v>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A4788-BB2F-4C5B-B691-57317341E79F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AA84E-52C6-46F2-BECD-A9F12EA71E5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -205,6 +205,42 @@
   </si>
   <si>
     <t>修改基本信息添加功能,修改字段,以及添加忘记密码接口。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统会议编辑bug修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员用户端样式修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专委会人员维护页面bug修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三-周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试会员框架渲染问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +566,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,9 +1265,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1460,7 +1499,7 @@
       <c r="F12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="24"/>
@@ -1479,7 +1518,7 @@
       <c r="F13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="16"/>
@@ -1498,7 +1537,7 @@
       <c r="F14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="16"/>
@@ -1510,8 +1549,85 @@
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
     </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="23">
+        <v>3</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="41">
+        <v>4</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AA84E-52C6-46F2-BECD-A9F12EA71E5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65724AE-F5B4-4215-95FB-B09861B2605C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
     <sheet name="4.8-4.12" sheetId="14" r:id="rId2"/>
     <sheet name="4.15-4.19" sheetId="15" r:id="rId3"/>
+    <sheet name="4.22-4.26" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -241,6 +242,50 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统问题接口修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周五</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三-周四</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会王主任确认专家库需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会确认会员系统已修改内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：4.15-4.19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：4.22-4.26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会王主任再次确认专家库需求反馈内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会确认会员系统已修改内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统增加redis配置，登录接口修改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +574,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,7 +619,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
@@ -862,17 +916,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -882,14 +936,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -921,7 +975,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -944,7 +998,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -965,7 +1019,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -986,7 +1040,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1007,7 +1061,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1030,7 +1084,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1051,7 +1105,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1072,7 +1126,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1093,7 +1147,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1116,7 +1170,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1137,7 +1191,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11">
         <v>3</v>
       </c>
@@ -1160,7 +1214,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1181,7 +1235,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="16">
@@ -1204,7 +1258,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -1225,7 +1279,7 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="16">
         <v>3</v>
       </c>
@@ -1267,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,17 +1332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1298,14 +1352,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1337,7 +1391,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1358,7 +1412,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1377,7 +1431,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1389,12 +1443,14 @@
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1406,12 +1462,14 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1432,7 +1490,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1451,7 +1509,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1468,7 +1526,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1485,7 +1543,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="27">
@@ -1506,7 +1564,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="20">
         <v>2</v>
       </c>
@@ -1525,7 +1583,7 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="27">
         <v>3</v>
       </c>
@@ -1544,13 +1602,13 @@
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="23">
@@ -1561,7 +1619,7 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="29" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="17">
@@ -1571,7 +1629,7 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="23">
         <v>2</v>
       </c>
@@ -1580,7 +1638,7 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="29" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="17">
@@ -1590,7 +1648,7 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="23">
         <v>3</v>
       </c>
@@ -1609,8 +1667,8 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="41">
+      <c r="A20" s="35"/>
+      <c r="B20" s="29">
         <v>4</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -1618,7 +1676,7 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="16"/>
@@ -1643,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1656,17 +1714,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1676,14 +1734,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1715,87 +1773,208 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45351490-877A-4A29-8D85-7B051D94159E}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA017FD-FD30-49E5-A36C-51CE6BFF37D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC729199-DFD1-4739-B10A-621245B344D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -269,6 +269,34 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统整体测试，所有页面bug记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要通知，协会动态修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一 周二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三 周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉框架，解决项目框架渲染问题</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +592,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,38 +631,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,17 +946,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -926,14 +966,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -965,7 +1005,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -988,7 +1028,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1009,7 +1049,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1030,7 +1070,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1051,7 +1091,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1074,7 +1114,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1095,7 +1135,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1116,7 +1156,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1137,7 +1177,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1160,7 +1200,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1181,7 +1221,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1204,7 +1244,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1225,7 +1265,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1248,7 +1288,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1269,7 +1309,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1322,17 +1362,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1342,14 +1382,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1381,7 +1421,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1402,7 +1442,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1421,7 +1461,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1440,7 +1480,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1459,7 +1499,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1480,7 +1520,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1499,7 +1539,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1516,7 +1556,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1533,7 +1573,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -1554,7 +1594,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="13">
         <v>2</v>
       </c>
@@ -1573,7 +1613,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1592,13 +1632,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="10">
@@ -1619,7 +1659,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="10">
         <v>2</v>
       </c>
@@ -1638,7 +1678,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="10">
         <v>3</v>
       </c>
@@ -1657,7 +1697,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="16">
         <v>4</v>
       </c>
@@ -1691,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1704,17 +1744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1724,14 +1764,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1763,7 +1803,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1782,7 +1822,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1799,7 +1839,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1816,7 +1856,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -1835,7 +1875,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1852,7 +1892,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -1869,13 +1909,13 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="8"/>
@@ -1888,11 +1928,11 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="8"/>
@@ -1905,24 +1945,78 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="10">
+      <c r="A12" s="33"/>
+      <c r="B12" s="45">
         <v>3</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
@@ -1950,17 +2044,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1970,14 +2064,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2009,7 +2103,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2030,7 +2124,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2049,7 +2143,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC729199-DFD1-4739-B10A-621245B344D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072831B1-C26F-4E92-95AF-28B17C12F8C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -211,30 +211,12 @@
     <t>调试会员框架渲染问题</t>
   </si>
   <si>
-    <t>日期：4.15-4.19</t>
-  </si>
-  <si>
-    <t>会员系统问题接口修改</t>
-  </si>
-  <si>
     <t>周一-周五</t>
   </si>
   <si>
-    <t>与协会王主任确认专家库需求</t>
-  </si>
-  <si>
     <t>与协会确认会员系统已修改内容</t>
   </si>
   <si>
-    <t>修改会员系统接口，了解数据结构</t>
-  </si>
-  <si>
-    <t>周一-周二</t>
-  </si>
-  <si>
-    <t>与协会确认会员系统已修改内容，修改会员系统接口</t>
-  </si>
-  <si>
     <t>日期：4.22-4.26</t>
   </si>
   <si>
@@ -244,19 +226,31 @@
     <t>会员系统增加redis配置，登录接口修改</t>
   </si>
   <si>
-    <t>齐道海</t>
+    <t>日期：4.22-4.26</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>熟悉会员系统的代码和逻辑</t>
+    <t>程欢</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>周一-周三</t>
+    <t>周一，周二</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查看会员系统的需求文档</t>
+    <t>会员系统新增生成会员编号和清退会员功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员描述修改为备注，内容时间做成列表显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议管理会议信息删改，功能改动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -264,39 +258,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查看沟通后改正的专家库需求文档</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周五</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>程欢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员系统整体测试，所有页面bug记录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要通知，协会动态修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一 周二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三 周四</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续熟悉框架，解决项目框架渲染问题</t>
+    <t>用户端会议报名显示内容增删，功能改动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,8 +558,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,26 +600,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,7 +1715,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1749,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -1804,225 +1785,176 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
+        <v>68</v>
+      </c>
+      <c r="B4" s="28">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
-      <c r="B5" s="2">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="28">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
+      <c r="A7" s="40"/>
+      <c r="B7" s="28">
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="45">
-        <v>3</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="16">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="16">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2044,17 +1976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2068,7 +2000,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -2103,14 +2035,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
@@ -2124,12 +2056,12 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -2143,17 +2075,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072831B1-C26F-4E92-95AF-28B17C12F8C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FA7E0-DBDD-4CAB-B16F-7EE58C6DCB45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>会议管理会议信息删改，功能改动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周三</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -262,7 +258,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>用户端会议报名显示内容增删，功能改动</t>
+    <t>用户端会议报名显示内容增删，功能修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议管理会议信息删改，功能修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -561,6 +561,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,36 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,17 +927,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -947,14 +947,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1009,7 +1009,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1095,7 +1095,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1181,7 +1181,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1269,7 +1269,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1343,17 +1343,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1363,14 +1363,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1423,7 +1423,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1501,7 +1501,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -1575,7 +1575,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="13">
         <v>2</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1613,13 +1613,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="10">
@@ -1640,7 +1640,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="10">
         <v>2</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="10">
         <v>3</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="16">
         <v>4</v>
       </c>
@@ -1715,7 +1715,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,17 +1725,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1745,14 +1745,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28">
@@ -1805,7 +1805,7 @@
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1824,17 +1824,17 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="28">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1843,17 +1843,17 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="28">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -1862,92 +1862,92 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1976,17 +1976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1996,14 +1996,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2035,7 +2035,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2056,7 +2056,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FA7E0-DBDD-4CAB-B16F-7EE58C6DCB45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EC0B2-41A4-4CC8-91C1-74A5D5436548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -211,22 +211,58 @@
     <t>调试会员框架渲染问题</t>
   </si>
   <si>
+    <t>日期：4.15-4.19</t>
+  </si>
+  <si>
+    <t>会员系统问题接口修改</t>
+  </si>
+  <si>
     <t>周一-周五</t>
   </si>
   <si>
+    <t>与协会王主任确认专家库需求</t>
+  </si>
+  <si>
     <t>与协会确认会员系统已修改内容</t>
   </si>
   <si>
+    <t>修改会员系统接口，了解数据结构</t>
+  </si>
+  <si>
+    <t>周一-周二</t>
+  </si>
+  <si>
+    <t>与协会确认会员系统已修改内容，修改会员系统接口</t>
+  </si>
+  <si>
     <t>日期：4.22-4.26</t>
   </si>
   <si>
-    <t>与协会王主任再次确认专家库需求反馈内容</t>
-  </si>
-  <si>
-    <t>会员系统增加redis配置，登录接口修改</t>
-  </si>
-  <si>
-    <t>日期：4.22-4.26</t>
+    <t>齐道海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉会员系统的代码和逻辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看会员系统的需求文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看沟通后改正的专家库需求文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -234,23 +270,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>周一，周二</t>
+    <t>会员系统整体测试，所有页面bug记录</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>会员系统新增生成会员编号和清退会员功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员描述修改为备注，内容时间做成列表显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
+    <t>重要通知，协会动态修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -258,12 +282,34 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>周一 周二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三 周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉框架，解决项目框架渲染问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统新增生成会员编号和清退会员功能</t>
+  </si>
+  <si>
+    <t>会员描述修改为备注，内容时间做成列表显示</t>
+  </si>
+  <si>
+    <t>会议管理会议信息删改，功能修改</t>
+  </si>
+  <si>
     <t>用户端会议报名显示内容增删，功能修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议管理会议信息删改，功能修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会王主任再次确认专家库需求反馈内容</t>
+  </si>
+  <si>
+    <t>会员系统增加redis配置，登录接口修改</t>
   </si>
 </sst>
 </file>
@@ -473,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,38 +604,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +662,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,17 +967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -947,14 +987,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -986,7 +1026,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1009,7 +1049,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1030,7 +1070,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1051,7 +1091,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1072,7 +1112,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1095,7 +1135,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1116,7 +1156,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1137,7 +1177,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1158,7 +1198,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1181,7 +1221,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1202,7 +1242,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1225,7 +1265,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1246,7 +1286,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1269,7 +1309,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1290,7 +1330,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1343,17 +1383,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1363,14 +1403,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1402,7 +1442,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1423,7 +1463,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1442,7 +1482,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1461,7 +1501,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1480,7 +1520,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1501,7 +1541,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1520,7 +1560,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1537,7 +1577,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1554,7 +1594,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -1575,7 +1615,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="13">
         <v>2</v>
       </c>
@@ -1594,7 +1634,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1613,13 +1653,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="10">
@@ -1640,7 +1680,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="10">
         <v>2</v>
       </c>
@@ -1659,7 +1699,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="10">
         <v>3</v>
       </c>
@@ -1678,7 +1718,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="16">
         <v>4</v>
       </c>
@@ -1714,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,17 +1765,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1745,14 +1785,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1784,177 +1824,226 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="28">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="28">
+      <c r="C11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="28">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="A13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1976,17 +2065,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1996,14 +2085,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2035,68 +2124,147 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="32">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="2">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+      <c r="B10" s="34">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EC0B2-41A4-4CC8-91C1-74A5D5436548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A801A-878D-454F-A962-09EB749A0B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,11 +619,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1754,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2056,7 +2056,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2124,19 +2124,19 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>37</v>
+      <c r="A4" s="51" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -2145,17 +2145,17 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2164,107 +2164,107 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="8">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="33">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="34">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="33" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="34">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="34">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FA7E0-DBDD-4CAB-B16F-7EE58C6DCB45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442CD52-CE60-4E1B-992E-889E4A2573D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -211,22 +211,58 @@
     <t>调试会员框架渲染问题</t>
   </si>
   <si>
+    <t>日期：4.15-4.19</t>
+  </si>
+  <si>
+    <t>会员系统问题接口修改</t>
+  </si>
+  <si>
     <t>周一-周五</t>
   </si>
   <si>
+    <t>与协会王主任确认专家库需求</t>
+  </si>
+  <si>
     <t>与协会确认会员系统已修改内容</t>
   </si>
   <si>
+    <t>修改会员系统接口，了解数据结构</t>
+  </si>
+  <si>
+    <t>周一-周二</t>
+  </si>
+  <si>
+    <t>与协会确认会员系统已修改内容，修改会员系统接口</t>
+  </si>
+  <si>
     <t>日期：4.22-4.26</t>
   </si>
   <si>
-    <t>与协会王主任再次确认专家库需求反馈内容</t>
-  </si>
-  <si>
-    <t>会员系统增加redis配置，登录接口修改</t>
-  </si>
-  <si>
-    <t>日期：4.22-4.26</t>
+    <t>齐道海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉会员系统的代码和逻辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看会员系统的需求文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看沟通后改正的专家库需求文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -234,23 +270,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>周一，周二</t>
+    <t>会员系统整体测试，所有页面bug记录</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>会员系统新增生成会员编号和清退会员功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员描述修改为备注，内容时间做成列表显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
+    <t>重要通知，协会动态修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -258,12 +282,70 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>周一 周二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三 周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉框架，解决项目框架渲染问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统新增生成会员编号和清退会员功能</t>
+  </si>
+  <si>
+    <t>会员描述修改为备注，内容时间做成列表显示</t>
+  </si>
+  <si>
+    <t>会议管理会议信息删改，功能修改</t>
+  </si>
+  <si>
     <t>用户端会议报名显示内容增删，功能修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议管理会议信息删改，功能修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会王主任再次确认专家库需求反馈内容</t>
+  </si>
+  <si>
+    <t>会员系统增加redis配置，登录接口修改</t>
+  </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加清退会员接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四，周五</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改会议添加接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改导出会议列表接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加报名会议接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,38 +640,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +698,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,17 +1003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -947,14 +1023,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -986,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1009,7 +1085,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1030,7 +1106,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1051,7 +1127,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1072,7 +1148,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1095,7 +1171,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1116,7 +1192,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1137,7 +1213,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1158,7 +1234,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1181,7 +1257,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1202,7 +1278,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1225,7 +1301,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1246,7 +1322,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1269,7 +1345,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1290,7 +1366,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1343,17 +1419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1363,14 +1439,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1402,7 +1478,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1423,7 +1499,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1442,7 +1518,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1461,7 +1537,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1480,7 +1556,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1501,7 +1577,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1520,7 +1596,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1537,7 +1613,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1554,7 +1630,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -1575,7 +1651,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="13">
         <v>2</v>
       </c>
@@ -1594,7 +1670,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1613,13 +1689,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="10">
@@ -1640,7 +1716,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="10">
         <v>2</v>
       </c>
@@ -1659,7 +1735,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="10">
         <v>3</v>
       </c>
@@ -1678,7 +1754,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="16">
         <v>4</v>
       </c>
@@ -1714,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,17 +1801,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1745,14 +1821,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1784,177 +1860,226 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="28">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="28">
+      <c r="C11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="28">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="A13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1976,17 +2101,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1996,14 +2121,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2035,64 +2160,222 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="32">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="32">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="2">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="34">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2100,6 +2383,6 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5A61A-3FCE-4D39-9A44-6D42D60C84B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2320FD7-C47D-485B-904D-2733B55AE579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
     <sheet name="4.8-4.12" sheetId="14" r:id="rId2"/>
     <sheet name="4.15-4.19" sheetId="15" r:id="rId3"/>
     <sheet name="4.22-4.26" sheetId="16" r:id="rId4"/>
+    <sheet name="4.28-4.30" sheetId="19" r:id="rId5"/>
+    <sheet name="5.5-5.10" sheetId="20" r:id="rId6"/>
+    <sheet name="5.13-5.17" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="114">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -309,6 +312,82 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：4.28-4.30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：5.5-5.10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：5.13-5.17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会动态，重要通知优化展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员审核及申请页面修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一，周二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员会议内容按新需求增删及添加编辑功能改动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统专委会验证及跳转优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端会议报名，及审核反馈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议及用户端报名页面增删改跳转及表单验证改动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联会员功能修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理，缴费管理页面多选项卡按钮修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传下载缴费附件功能添加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三-周四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员审核编号功能及页面排版外观按新需求修改</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +651,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,24 +690,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +698,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,17 +1017,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -928,14 +1037,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" s="19" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -967,7 +1076,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="19" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -990,7 +1099,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1011,7 +1120,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1032,7 +1141,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1053,7 +1162,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1076,7 +1185,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1097,7 +1206,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1118,7 +1227,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1139,7 +1248,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1162,7 +1271,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1183,7 +1292,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="22">
         <v>3</v>
       </c>
@@ -1206,7 +1315,7 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1227,7 +1336,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7">
@@ -1250,7 +1359,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -1271,7 +1380,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -1324,17 +1433,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1344,14 +1453,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1383,7 +1492,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1404,7 +1513,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1423,7 +1532,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1442,7 +1551,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1461,7 +1570,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1482,7 +1591,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1501,7 +1610,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1518,7 +1627,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1535,7 +1644,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="13">
@@ -1556,7 +1665,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="17">
         <v>2</v>
       </c>
@@ -1575,7 +1684,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="13">
         <v>3</v>
       </c>
@@ -1594,13 +1703,13 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="34"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="8">
@@ -1621,7 +1730,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -1640,7 +1749,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8">
         <v>3</v>
       </c>
@@ -1659,7 +1768,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="6">
         <v>4</v>
       </c>
@@ -1706,17 +1815,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1726,14 +1835,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1765,7 +1874,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1784,7 +1893,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1801,7 +1910,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1818,7 +1927,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -1837,7 +1946,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1854,7 +1963,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -1871,7 +1980,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="8">
@@ -1890,7 +1999,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -1907,7 +2016,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="10">
         <v>3</v>
       </c>
@@ -1924,7 +2033,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6">
@@ -1943,7 +2052,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -1960,7 +2069,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -1996,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2006,17 +2115,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2026,14 +2135,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2065,7 +2174,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2086,7 +2195,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2105,7 +2214,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2124,7 +2233,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2143,7 +2252,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -2164,7 +2273,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2183,7 +2292,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2202,7 +2311,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="6">
         <v>4</v>
       </c>
@@ -2221,7 +2330,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="8">
@@ -2242,7 +2351,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -2261,7 +2370,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -2280,7 +2389,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -2299,7 +2408,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8">
@@ -2320,7 +2429,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -2339,7 +2448,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -2371,4 +2480,851 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8C718-AE1A-4D1F-B6EC-52CEF8FBF24D}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79B304-989F-4C46-8B28-137F0F9EC7A6}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="45">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="29">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0465208E-3F4E-47A8-BA14-00DEE0B12F8E}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="29">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="45">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2320FD7-C47D-485B-904D-2733B55AE579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F480E-9054-490F-B6F1-13AA2C440538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="127">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -388,6 +388,58 @@
   </si>
   <si>
     <t>会员审核编号功能及页面排版外观按新需求修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户端报名会议功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日至周二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端审核会议报名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一至周三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>续费会员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家基本信息添加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传下载缴费附件功能添加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四-周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询报名会议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二至周四</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +484,19 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +719,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,32 +794,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,17 +1106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1037,14 +1126,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" s="19" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1076,7 +1165,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="19" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1099,7 +1188,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1120,7 +1209,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1141,7 +1230,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1162,7 +1251,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1185,7 +1274,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1206,7 +1295,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1227,7 +1316,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1248,7 +1337,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1271,7 +1360,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1292,7 +1381,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22">
         <v>3</v>
       </c>
@@ -1315,7 +1404,7 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1336,7 +1425,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7">
@@ -1359,7 +1448,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -1380,7 +1469,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -1433,17 +1522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1453,14 +1542,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1492,7 +1581,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1513,7 +1602,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1532,7 +1621,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1551,7 +1640,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1570,7 +1659,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1591,7 +1680,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1610,7 +1699,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1627,7 +1716,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1644,7 +1733,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="13">
@@ -1665,7 +1754,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="17">
         <v>2</v>
       </c>
@@ -1684,7 +1773,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="13">
         <v>3</v>
       </c>
@@ -1703,13 +1792,13 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="44"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="8">
@@ -1730,7 +1819,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -1749,7 +1838,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="8">
         <v>3</v>
       </c>
@@ -1768,7 +1857,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="6">
         <v>4</v>
       </c>
@@ -1815,17 +1904,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1835,14 +1924,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1874,7 +1963,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1893,7 +1982,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1910,7 +1999,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1927,7 +2016,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -1946,7 +2035,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1963,7 +2052,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -1980,7 +2069,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="8">
@@ -1999,7 +2088,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -2016,7 +2105,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="10">
         <v>3</v>
       </c>
@@ -2033,7 +2122,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="53" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6">
@@ -2052,7 +2141,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -2069,7 +2158,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -2105,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2115,17 +2204,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2135,14 +2224,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2174,7 +2263,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2195,7 +2284,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2214,7 +2303,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2233,7 +2322,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2252,7 +2341,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -2273,7 +2362,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2292,7 +2381,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2311,7 +2400,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="6">
         <v>4</v>
       </c>
@@ -2330,7 +2419,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="8">
@@ -2351,7 +2440,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -2370,7 +2459,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -2389,7 +2478,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -2408,7 +2497,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8">
@@ -2429,7 +2518,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -2448,7 +2537,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -2486,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8C718-AE1A-4D1F-B6EC-52CEF8FBF24D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2496,17 +2585,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2516,14 +2605,14 @@
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2555,7 +2644,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="29">
@@ -2576,7 +2665,7 @@
       <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -2588,176 +2677,193 @@
       <c r="F5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="31">
         <v>1</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="48">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2765,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79B304-989F-4C46-8B28-137F0F9EC7A6}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2775,17 +2881,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2795,14 +2901,14 @@
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2834,7 +2940,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="29">
@@ -2855,7 +2961,7 @@
       <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="29">
         <v>2</v>
       </c>
@@ -2874,7 +2980,7 @@
       <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="22">
         <v>3</v>
       </c>
@@ -2886,14 +2992,14 @@
       <c r="F6" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="31">
         <v>1</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="29">
         <v>4</v>
       </c>
@@ -2912,132 +3018,159 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="A8" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="30">
+        <v>3</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3050,7 +3183,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3059,17 +3192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3079,14 +3212,14 @@
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3118,7 +3251,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="29">
@@ -3139,7 +3272,7 @@
       <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="29">
         <v>2</v>
       </c>
@@ -3158,11 +3291,11 @@
       <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="60" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="29"/>
@@ -3177,7 +3310,7 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="22">
         <v>4</v>
       </c>
@@ -3189,139 +3322,158 @@
       <c r="F7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="31">
         <v>1</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="A8" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61A8DB-F72A-4476-8842-75518F470024}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D7788-CDB8-434B-8E6E-681845878FBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="4.28-4.30" sheetId="19" r:id="rId5"/>
     <sheet name="5.5-5.10" sheetId="20" r:id="rId6"/>
     <sheet name="5.13-5.17" sheetId="18" r:id="rId7"/>
+    <sheet name="5.20-5.24" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="158">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -498,6 +499,50 @@
   <si>
     <t>周五</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>站内信接口修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库增加全局唯一id获取方法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改会员系统站内信、活动会员关联接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统历史数据处理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合协会测试会员系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库需求逻辑确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20-5.24</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -694,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +845,48 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,24 +905,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,38 +914,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,17 +1235,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="26" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1189,14 +1255,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1228,7 +1294,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1251,7 +1317,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1272,7 +1338,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1293,7 +1359,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1314,7 +1380,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1337,7 +1403,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1358,7 +1424,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1379,7 +1445,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1400,7 +1466,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1423,7 +1489,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1444,7 +1510,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1467,7 +1533,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1488,7 +1554,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15">
@@ -1511,7 +1577,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="15">
         <v>2</v>
       </c>
@@ -1532,7 +1598,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -1585,17 +1651,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1605,14 +1671,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1644,7 +1710,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1665,7 +1731,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1684,7 +1750,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1703,7 +1769,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1722,7 +1788,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1743,7 +1809,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1762,7 +1828,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1779,7 +1845,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1796,7 +1862,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21">
@@ -1817,7 +1883,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -1836,7 +1902,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1855,13 +1921,13 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="47"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="16">
@@ -1882,7 +1948,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -1901,7 +1967,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="16">
         <v>3</v>
       </c>
@@ -1920,7 +1986,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="14">
         <v>4</v>
       </c>
@@ -1967,17 +2033,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1987,14 +2053,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2026,7 +2092,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2045,7 +2111,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2062,7 +2128,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2079,7 +2145,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -2098,7 +2164,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2115,7 +2181,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2132,7 +2198,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16">
@@ -2151,7 +2217,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="16">
         <v>2</v>
       </c>
@@ -2168,7 +2234,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="18">
         <v>3</v>
       </c>
@@ -2185,7 +2251,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2204,7 +2270,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2221,7 +2287,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2267,17 +2333,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2287,14 +2353,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2326,7 +2392,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2347,7 +2413,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2366,7 +2432,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2385,7 +2451,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2404,7 +2470,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -2425,7 +2491,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2444,7 +2510,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2463,7 +2529,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2482,7 +2548,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16">
@@ -2503,7 +2569,7 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="16">
         <v>2</v>
       </c>
@@ -2522,7 +2588,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="16">
         <v>3</v>
       </c>
@@ -2541,7 +2607,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="16">
         <v>4</v>
       </c>
@@ -2560,7 +2626,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="16">
@@ -2581,7 +2647,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -2600,7 +2666,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="16">
         <v>3</v>
       </c>
@@ -2649,17 +2715,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2669,14 +2735,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2708,7 +2774,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -2729,7 +2795,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -2748,71 +2814,71 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="37">
-        <v>1</v>
-      </c>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="58">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="37">
-        <v>1</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="51">
+        <v>1</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="52" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="58">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="59" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="2">
@@ -2823,7 +2889,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="39" t="s">
         <v>132</v>
       </c>
       <c r="G10" s="5">
@@ -2833,7 +2899,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -2842,7 +2908,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="40" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="5">
@@ -2852,7 +2918,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="16">
         <v>3</v>
       </c>
@@ -2861,7 +2927,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="40" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="5">
@@ -2949,6 +3015,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D8:D9"/>
@@ -2961,13 +3034,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2989,17 +3055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3009,14 +3075,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3048,7 +3114,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3069,7 +3135,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3088,7 +3154,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -3107,7 +3173,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3126,7 +3192,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3147,7 +3213,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3166,7 +3232,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3185,7 +3251,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3206,7 +3272,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3225,7 +3291,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -3244,7 +3310,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -3263,18 +3329,18 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="62" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="41" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G15" s="5">
@@ -3284,16 +3350,16 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="41" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="42" t="s">
         <v>138</v>
       </c>
       <c r="G16" s="5">
@@ -3303,16 +3369,16 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="41" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="42" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="5">
@@ -3352,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3362,17 +3428,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3382,14 +3448,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3421,7 +3487,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3442,7 +3508,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3461,7 +3527,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3480,7 +3546,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -3499,7 +3565,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3520,7 +3586,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3539,7 +3605,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -3550,7 +3616,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3571,7 +3637,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3590,7 +3656,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -3609,7 +3675,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -3628,18 +3694,18 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="62" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="41" t="s">
         <v>141</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="42" t="s">
         <v>142</v>
       </c>
       <c r="G15" s="5">
@@ -3649,16 +3715,16 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="41" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G16" s="5">
@@ -3668,16 +3734,16 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="42" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="5">
@@ -3687,16 +3753,16 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="41" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="42" t="s">
         <v>140</v>
       </c>
       <c r="G18" s="5">
@@ -3706,16 +3772,16 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="16">
         <v>5</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="41" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="42" t="s">
         <v>149</v>
       </c>
       <c r="G19" s="5">
@@ -3725,16 +3791,16 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="16">
         <v>6</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="42" t="s">
         <v>149</v>
       </c>
       <c r="G20" s="5">
@@ -3757,4 +3823,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E7F28-D638-4C40-AC2B-CABF6EF02A36}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="66"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="65">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="36">
+        <v>6</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="65">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D7788-CDB8-434B-8E6E-681845878FBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0285ED2-1FA6-4853-B085-7927E0519184}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="167">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -542,6 +542,42 @@
       </rPr>
       <t>20-5.24</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费附件上传下载管理端显示文件名下载</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一,周二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请表主营业务首选验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议及消息关联会员bug修复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议审核，会员查询及筛选bug修复</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +905,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,13 +959,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,14 +980,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,17 +1277,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="26" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1255,14 +1297,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1294,7 +1336,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1317,7 +1359,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1338,7 +1380,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1359,7 +1401,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1380,7 +1422,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1403,7 +1445,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1424,7 +1466,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1445,7 +1487,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1466,7 +1508,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1489,7 +1531,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1510,7 +1552,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1533,7 +1575,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1554,7 +1596,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15">
@@ -1577,7 +1619,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="15">
         <v>2</v>
       </c>
@@ -1598,7 +1640,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -1651,17 +1693,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1671,14 +1713,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1710,7 +1752,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1731,7 +1773,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1750,7 +1792,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1769,7 +1811,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1788,7 +1830,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1809,7 +1851,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1828,7 +1870,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1845,7 +1887,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1862,7 +1904,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21">
@@ -1883,7 +1925,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -1902,7 +1944,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1921,13 +1963,13 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="16">
@@ -1948,7 +1990,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -1967,7 +2009,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="16">
         <v>3</v>
       </c>
@@ -1986,7 +2028,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="14">
         <v>4</v>
       </c>
@@ -2033,17 +2075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2053,14 +2095,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2092,7 +2134,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2111,7 +2153,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2128,7 +2170,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2145,7 +2187,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -2164,7 +2206,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2181,7 +2223,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2198,7 +2240,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16">
@@ -2217,7 +2259,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="16">
         <v>2</v>
       </c>
@@ -2234,7 +2276,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18">
         <v>3</v>
       </c>
@@ -2251,7 +2293,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2270,7 +2312,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2287,7 +2329,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2333,17 +2375,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2353,14 +2395,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2392,7 +2434,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2413,7 +2455,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2432,7 +2474,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2451,7 +2493,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2470,7 +2512,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -2491,7 +2533,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2510,7 +2552,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2529,7 +2571,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2548,7 +2590,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16">
@@ -2569,7 +2611,7 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="16">
         <v>2</v>
       </c>
@@ -2588,7 +2630,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="16">
         <v>3</v>
       </c>
@@ -2607,7 +2649,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="16">
         <v>4</v>
       </c>
@@ -2626,7 +2668,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="16">
@@ -2647,7 +2689,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -2666,7 +2708,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="16">
         <v>3</v>
       </c>
@@ -2715,17 +2757,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2735,14 +2777,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2774,7 +2816,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -2795,7 +2837,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -2814,71 +2856,71 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="54">
+        <v>1</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="60" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="62">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="58"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="51">
-        <v>1</v>
-      </c>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="54">
+        <v>1</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="60" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="62">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="58"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="2">
@@ -2899,7 +2941,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -2918,7 +2960,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="16">
         <v>3</v>
       </c>
@@ -3015,13 +3057,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D8:D9"/>
@@ -3034,6 +3069,13 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,17 +3097,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3075,14 +3117,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3114,7 +3156,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3135,7 +3177,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3154,7 +3196,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -3173,7 +3215,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3192,7 +3234,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3213,7 +3255,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3232,7 +3274,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3251,7 +3293,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3272,7 +3314,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3291,7 +3333,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -3310,7 +3352,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -3329,7 +3371,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="65" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
@@ -3350,7 +3392,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
@@ -3369,7 +3411,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3418,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3428,17 +3470,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3448,14 +3490,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3487,7 +3529,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3508,7 +3550,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3527,7 +3569,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3546,7 +3588,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -3565,7 +3607,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3586,7 +3628,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3605,7 +3647,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -3616,7 +3658,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3637,7 +3679,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3656,7 +3698,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -3675,7 +3717,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -3694,7 +3736,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="65" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
@@ -3715,7 +3757,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
@@ -3734,7 +3776,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3753,7 +3795,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16">
         <v>4</v>
       </c>
@@ -3772,7 +3814,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="16">
         <v>5</v>
       </c>
@@ -3791,7 +3833,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="16">
         <v>6</v>
       </c>
@@ -3827,31 +3869,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E7F28-D638-4C40-AC2B-CABF6EF02A36}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="66"/>
+    <col min="2" max="2" width="9" style="45"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3861,14 +3903,14 @@
       <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="67" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
@@ -3900,7 +3942,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="16">
@@ -3921,7 +3963,7 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -3940,7 +3982,7 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -3959,7 +4001,7 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -3978,7 +4020,7 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16">
         <v>5</v>
       </c>
@@ -3990,14 +4032,14 @@
       <c r="F8" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="44">
         <v>1</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="36">
         <v>6</v>
       </c>
@@ -4009,18 +4051,97 @@
       <c r="F9" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="44">
         <v>1</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="69">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="44">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="69">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="44">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="69">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="44">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="69">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="44">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0285ED2-1FA6-4853-B085-7927E0519184}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D47DE-4327-441C-9304-FCDBD5F9F53D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="174">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -578,6 +578,34 @@
   </si>
   <si>
     <t>会议审核，会员查询及筛选bug修复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合前端测试专家基本信信息接口测试，并修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一至周二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议及会员的接口接口代码修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端查询基本信息列表及审核基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四至周五</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +942,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,12 +993,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -983,7 +1017,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,17 +1314,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="26" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1297,14 +1334,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1336,7 +1373,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1359,7 +1396,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1380,7 +1417,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1401,7 +1438,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1422,7 +1459,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1445,7 +1482,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1466,7 +1503,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1487,7 +1524,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1508,7 +1545,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1531,7 +1568,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1552,7 +1589,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1575,7 +1612,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1596,7 +1633,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="51" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15">
@@ -1619,7 +1656,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="15">
         <v>2</v>
       </c>
@@ -1640,7 +1677,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -1693,17 +1730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1713,14 +1750,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1752,7 +1789,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1773,7 +1810,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1792,7 +1829,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1811,7 +1848,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1830,7 +1867,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1851,7 +1888,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1870,7 +1907,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1887,7 +1924,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1904,7 +1941,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21">
@@ -1925,7 +1962,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -1944,7 +1981,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="21">
         <v>3</v>
       </c>
@@ -1963,13 +2000,13 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="16">
@@ -1990,7 +2027,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -2009,7 +2046,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="16">
         <v>3</v>
       </c>
@@ -2028,7 +2065,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="14">
         <v>4</v>
       </c>
@@ -2075,17 +2112,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2095,14 +2132,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2134,7 +2171,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2153,7 +2190,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2170,7 +2207,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2187,7 +2224,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -2206,7 +2243,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2223,7 +2260,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2240,7 +2277,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16">
@@ -2259,7 +2296,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="16">
         <v>2</v>
       </c>
@@ -2276,7 +2313,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="18">
         <v>3</v>
       </c>
@@ -2293,7 +2330,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2312,7 +2349,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2329,7 +2366,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2375,17 +2412,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2395,14 +2432,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2434,7 +2471,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2455,7 +2492,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2474,7 +2511,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2493,7 +2530,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2512,7 +2549,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -2533,7 +2570,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2552,7 +2589,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2571,7 +2608,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2590,7 +2627,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16">
@@ -2611,7 +2648,7 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="16">
         <v>2</v>
       </c>
@@ -2630,7 +2667,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="16">
         <v>3</v>
       </c>
@@ -2649,7 +2686,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="16">
         <v>4</v>
       </c>
@@ -2668,7 +2705,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="16">
@@ -2689,7 +2726,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -2708,7 +2745,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="16">
         <v>3</v>
       </c>
@@ -2757,17 +2794,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2777,14 +2814,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2816,7 +2853,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -2837,7 +2874,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -2856,71 +2893,71 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="54">
-        <v>1</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="63">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="54">
-        <v>1</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="56">
+        <v>1</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="63">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="64" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="2">
@@ -2941,7 +2978,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -2960,7 +2997,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="16">
         <v>3</v>
       </c>
@@ -3057,6 +3094,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D8:D9"/>
@@ -3069,13 +3113,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3097,17 +3134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3117,14 +3154,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3156,7 +3193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3177,7 +3214,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3196,7 +3233,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -3215,7 +3252,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3234,7 +3271,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3255,7 +3292,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3274,7 +3311,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3293,7 +3330,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3314,7 +3351,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3333,7 +3370,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -3352,7 +3389,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -3371,7 +3408,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
@@ -3392,7 +3429,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
@@ -3411,7 +3448,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3460,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
@@ -3470,17 +3507,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3490,14 +3527,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3529,7 +3566,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3550,7 +3587,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3569,7 +3606,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3588,7 +3625,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -3607,7 +3644,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3628,7 +3665,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3647,7 +3684,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -3658,7 +3695,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3679,7 +3716,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3698,7 +3735,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -3717,7 +3754,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -3736,7 +3773,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="16">
@@ -3757,7 +3794,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
@@ -3776,7 +3813,7 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3795,7 +3832,7 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="16">
         <v>4</v>
       </c>
@@ -3814,7 +3851,7 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="16">
         <v>5</v>
       </c>
@@ -3833,7 +3870,7 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="16">
         <v>6</v>
       </c>
@@ -3869,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E7F28-D638-4C40-AC2B-CABF6EF02A36}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3880,20 +3917,21 @@
     <col min="2" max="2" width="9" style="45"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3903,14 +3941,14 @@
       <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="68" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
@@ -3942,7 +3980,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="16">
@@ -3963,7 +4001,7 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -3982,7 +4020,7 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -4001,7 +4039,7 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -4020,7 +4058,7 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="16">
         <v>5</v>
       </c>
@@ -4039,7 +4077,7 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="36">
         <v>6</v>
       </c>
@@ -4058,10 +4096,10 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="47">
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -4079,8 +4117,8 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="69">
+      <c r="A11" s="52"/>
+      <c r="B11" s="47">
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -4098,8 +4136,8 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="69">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47">
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -4117,8 +4155,8 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="69">
+      <c r="A13" s="53"/>
+      <c r="B13" s="47">
         <v>4</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -4135,8 +4173,79 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="46">
+        <v>1</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="46">
+        <v>2</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="46">
+        <v>3</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90364A47-9A1D-418A-8760-237BC1F5C9B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDBECE-72E6-4D4F-B84F-144EDC55677F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,6 +910,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,24 +973,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,18 +982,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,33 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,17 +1297,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="36" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1317,14 +1317,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1379,7 +1379,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1465,7 +1465,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="37" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1639,7 +1639,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1713,17 +1713,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1733,14 +1733,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1793,7 +1793,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1871,7 +1871,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="32">
@@ -1945,7 +1945,7 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="35">
         <v>2</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -1983,13 +1983,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="58"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="6">
@@ -2010,7 +2010,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="6">
         <v>2</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="6">
         <v>3</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12">
         <v>4</v>
       </c>
@@ -2095,17 +2095,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2115,14 +2115,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2173,7 +2173,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -2226,7 +2226,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
@@ -2279,7 +2279,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="29">
         <v>3</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="12">
@@ -2332,7 +2332,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="12">
         <v>2</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="12">
         <v>3</v>
       </c>
@@ -2395,17 +2395,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2415,14 +2415,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2475,7 +2475,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
@@ -2553,7 +2553,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="12">
         <v>4</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -2631,7 +2631,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="6">
@@ -2709,7 +2709,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="6">
         <v>2</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="6">
         <v>3</v>
       </c>
@@ -2777,17 +2777,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2797,14 +2797,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -2857,7 +2857,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -2876,71 +2876,71 @@
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="62">
+        <v>1</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="62" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="69">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="47">
-        <v>1</v>
-      </c>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="62">
+        <v>1</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="62" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="69">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -2961,7 +2961,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="12">
         <v>2</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6">
         <v>3</v>
       </c>
@@ -3077,18 +3077,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3096,6 +3084,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,17 +3117,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3137,14 +3137,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3197,7 +3197,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3275,7 +3275,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3334,7 +3334,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="19">
         <v>3</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
@@ -3412,7 +3412,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -3490,17 +3490,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3510,14 +3510,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3549,7 +3549,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3570,7 +3570,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3648,7 +3648,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="3"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
@@ -3678,7 +3678,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3699,7 +3699,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="19">
         <v>4</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
@@ -3777,7 +3777,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="6">
         <v>4</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="6">
         <v>6</v>
       </c>
@@ -3904,17 +3904,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3924,14 +3924,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="67" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3963,7 +3963,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6">
@@ -3984,7 +3984,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="13">
@@ -4100,7 +4100,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="13">
         <v>2</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="13">
         <v>3</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="13">
         <v>4</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="12">
@@ -4178,7 +4178,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="12">
         <v>2</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B17" s="13">
@@ -4237,7 +4237,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="13">
         <v>2</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="13">
         <v>3</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="13">
         <v>4</v>
       </c>
@@ -4314,7 +4314,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4326,17 +4326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4346,14 +4346,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -4385,7 +4385,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="73" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="6">
@@ -4406,7 +4406,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="29">
         <v>5</v>
       </c>
@@ -4475,141 +4475,141 @@
       <c r="F8" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="68">
-        <v>1</v>
+      <c r="G8" s="45">
+        <v>0.9</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="75"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="22"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="74"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="22"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="69"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="22"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="22"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="69"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="70"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="70"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="22"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="69"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="22"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="73"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="69"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="22"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
     </row>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDBECE-72E6-4D4F-B84F-144EDC55677F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478DD32-08EF-4ED0-A08E-21A42B01BC54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="183">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -579,12 +579,48 @@
     <t>日期：5.27-5.31</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入专家临时信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一-周二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统bug调试及修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加临时专家信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家基本信息审核短信回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +671,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -644,7 +687,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -759,22 +802,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,11 +965,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,18 +1013,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,6 +1036,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,17 +1334,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="36" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1317,14 +1354,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1356,7 +1393,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1379,7 +1416,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1400,7 +1437,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1421,7 +1458,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1442,7 +1479,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1465,7 +1502,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1486,7 +1523,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="37" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1507,7 +1544,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1528,7 +1565,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" s="37" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
@@ -1551,7 +1588,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="37" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1572,7 +1609,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="37" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="19">
         <v>3</v>
       </c>
@@ -1595,7 +1632,7 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -1616,7 +1653,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1639,7 +1676,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1660,7 +1697,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1713,17 +1750,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1733,14 +1770,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1772,7 +1809,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1793,7 +1830,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1812,7 +1849,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1831,7 +1868,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1850,7 +1887,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1871,7 +1908,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1890,7 +1927,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1907,7 +1944,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1924,7 +1961,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="32">
@@ -1945,7 +1982,7 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="35">
         <v>2</v>
       </c>
@@ -1964,7 +2001,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -1983,13 +2020,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="6">
@@ -2010,7 +2047,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="6">
         <v>2</v>
       </c>
@@ -2029,7 +2066,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="6">
         <v>3</v>
       </c>
@@ -2048,7 +2085,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="12">
         <v>4</v>
       </c>
@@ -2095,17 +2132,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2115,14 +2152,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2154,7 +2191,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2173,7 +2210,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2190,7 +2227,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2207,7 +2244,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -2226,7 +2263,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2243,7 +2280,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2260,7 +2297,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
@@ -2279,7 +2316,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -2296,7 +2333,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="29">
         <v>3</v>
       </c>
@@ -2313,7 +2350,7 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="12">
@@ -2332,7 +2369,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="12">
         <v>2</v>
       </c>
@@ -2349,7 +2386,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12">
         <v>3</v>
       </c>
@@ -2395,17 +2432,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2415,14 +2452,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2454,7 +2491,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2475,7 +2512,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2494,7 +2531,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2513,7 +2550,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2532,7 +2569,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
@@ -2553,7 +2590,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2572,7 +2609,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2591,7 +2628,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="12">
         <v>4</v>
       </c>
@@ -2610,7 +2647,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6">
@@ -2631,7 +2668,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -2650,7 +2687,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -2669,7 +2706,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -2688,7 +2725,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="6">
@@ -2709,7 +2746,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="6">
         <v>2</v>
       </c>
@@ -2728,7 +2765,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="6">
         <v>3</v>
       </c>
@@ -2777,17 +2814,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2797,14 +2834,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2836,7 +2873,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -2857,7 +2894,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -2876,18 +2913,18 @@
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="62">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="61">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="70" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="71" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="69">
@@ -2897,29 +2934,29 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="69"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="62">
-        <v>1</v>
-      </c>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="61">
+        <v>1</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="71" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="69">
@@ -2929,18 +2966,18 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="69"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -2961,7 +2998,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12">
         <v>2</v>
       </c>
@@ -2980,7 +3017,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="6">
         <v>3</v>
       </c>
@@ -3077,6 +3114,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3084,18 +3133,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,17 +3154,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3137,14 +3174,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3176,7 +3213,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3197,7 +3234,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3216,7 +3253,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -3235,7 +3272,7 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3254,7 +3291,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3275,7 +3312,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3294,7 +3331,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3313,7 +3350,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3334,7 +3371,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3353,7 +3390,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="19">
         <v>3</v>
       </c>
@@ -3372,7 +3409,7 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3391,7 +3428,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
@@ -3412,7 +3449,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -3431,7 +3468,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -3490,17 +3527,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3510,14 +3547,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3549,7 +3586,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3570,7 +3607,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3589,7 +3626,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3608,7 +3645,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -3627,7 +3664,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3648,7 +3685,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3667,7 +3704,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
@@ -3678,7 +3715,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3699,7 +3736,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3718,7 +3755,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3737,7 +3774,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="19">
         <v>4</v>
       </c>
@@ -3756,7 +3793,7 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
@@ -3777,7 +3814,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -3796,7 +3833,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -3815,7 +3852,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="6">
         <v>4</v>
       </c>
@@ -3834,7 +3871,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -3853,7 +3890,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="6">
         <v>6</v>
       </c>
@@ -3904,17 +3941,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3924,14 +3961,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3963,7 +4000,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6">
@@ -3984,7 +4021,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4003,7 +4040,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4022,7 +4059,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4041,7 +4078,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -4060,7 +4097,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -4079,7 +4116,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="13">
@@ -4100,7 +4137,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="13">
         <v>2</v>
       </c>
@@ -4119,7 +4156,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="13">
         <v>3</v>
       </c>
@@ -4138,7 +4175,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="13">
         <v>4</v>
       </c>
@@ -4157,7 +4194,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="12">
@@ -4178,7 +4215,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12">
         <v>2</v>
       </c>
@@ -4197,7 +4234,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -4216,7 +4253,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>163</v>
       </c>
       <c r="B17" s="13">
@@ -4237,7 +4274,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="13">
         <v>2</v>
       </c>
@@ -4256,7 +4293,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="13">
         <v>3</v>
       </c>
@@ -4275,7 +4312,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="13">
         <v>4</v>
       </c>
@@ -4314,7 +4351,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4326,17 +4363,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4346,14 +4383,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -4385,7 +4422,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="6">
@@ -4406,7 +4443,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4425,7 +4462,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4444,7 +4481,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4463,7 +4500,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="29">
         <v>5</v>
       </c>
@@ -4482,48 +4519,82 @@
       <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="52">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="52">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="52">
+        <v>3</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="52">
+        <v>4</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
@@ -4614,14 +4685,15 @@
       <c r="I20" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478DD32-08EF-4ED0-A08E-21A42B01BC54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="781" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="176">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -536,91 +530,56 @@
     <t>会员管理条件查询，分页</t>
   </si>
   <si>
-    <t>胥涛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>程欢</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>日期：5.27-5.31</t>
   </si>
   <si>
     <t>会员系统所有分页修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>会员系统全部模块细节测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>会员系统自测bug修复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四，周五</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一-周五</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统新需求修改及异常修复</t>
   </si>
   <si>
     <t>专家库前台环境配置项目运行及修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员系统新需求修改及异常修复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：5.27-5.31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐道海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>导入专家临时信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一-周二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>会员系统bug调试及修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>添加临时专家信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>专家基本信息审核短信回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库调用会员系统获取重要通知接口开发，审核申请发短信</t>
+  </si>
+  <si>
+    <t>会员系统bug调试及修改，下载word修改，管理端条件查询</t>
+  </si>
+  <si>
+    <t>下载Excel,标签相关专业删除，添加新专业</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,19 +602,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -666,28 +618,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -735,6 +1004,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -742,19 +1024,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -802,52 +1071,348 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,19 +1428,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,40 +1458,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -926,15 +1491,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -944,117 +1518,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1312,1796 +1831,1800 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+      <selection activeCell="A1" sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="32.25" style="38" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="56" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="36" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" s="54" customFormat="1" ht="35.65" customHeight="1" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" s="55" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" s="37" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" s="55" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" s="55" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" s="55" customFormat="1" ht="33" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="3">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="37" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" s="55" customFormat="1" ht="35.25" customHeight="1" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="37" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" s="55" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="37" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" s="55" customFormat="1" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" s="37" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="3">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" s="55" customFormat="1" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A13" s="58"/>
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="37" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="19">
+      <c r="G13" s="59">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" s="55" customFormat="1" ht="39.75" customHeight="1" spans="1:9">
+      <c r="A14" s="58"/>
+      <c r="B14" s="39">
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="41">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="61">
+        <v>1</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="3">
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A15" s="62"/>
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="44">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="8">
+      <c r="G16" s="65">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="30"/>
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="44">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="8">
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="28.5" spans="1:9">
+      <c r="A18" s="31"/>
+      <c r="B18" s="9">
         <v>3</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="44">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="65">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="3">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10">
         <v>0.8</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="38"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="38"/>
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="35">
+      <c r="G12" s="34">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" ht="33" spans="1:9">
+      <c r="A13" s="30"/>
+      <c r="B13" s="53">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="32">
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="33" spans="1:9">
+      <c r="A14" s="30"/>
+      <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" hidden="1" spans="1:1">
+      <c r="A15" s="30"/>
+    </row>
+    <row r="16" hidden="1" spans="1:1">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="6">
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="30"/>
+      <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="6">
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="30"/>
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="12">
+      <c r="G19" s="34">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="31"/>
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="43"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="3">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="38"/>
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="33" spans="1:9">
+      <c r="A9" s="43"/>
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="6">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="30"/>
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="29">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="29" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="12">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="12">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="3">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="10">
         <v>0.8</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="38"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="12">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="43"/>
+      <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="6">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="6">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="6">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="33" spans="1:9">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="6">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="6">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="33" spans="1:9">
+      <c r="A18" s="17"/>
+      <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="19">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="61">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="71" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="69">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="61">
-        <v>1</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="71" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="69">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="12">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="28" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="6">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="28" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="24"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="24"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="24"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="24"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="24"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="24"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3114,825 +3637,828 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="19">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="3">
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="3">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="19">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39">
         <v>3</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="3">
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="43"/>
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="6">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="6">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="24"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="10">
         <v>0.9</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="19">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="3" hidden="1" customHeight="1" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="3">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="3">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="38"/>
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="10">
         <v>0.9</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="19">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39">
         <v>4</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="6">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="6">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="6">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="6">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
-      <c r="B20" s="6">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
@@ -3940,421 +4466,422 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="6">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="6">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="6">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="6">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="12">
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="13">
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="13">
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="12" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="13">
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29">
         <v>4</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="15" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="12">
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="12">
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="13">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="13">
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29">
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="13">
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="31"/>
+      <c r="B20" s="29">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBE39B6-CC47-495E-BFE1-2E7EF7057F39}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
@@ -4362,338 +4889,354 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="6">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="6">
+      <c r="C10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="6">
+      <c r="C11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C12" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="29">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="52">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="52">
-        <v>2</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="52">
-        <v>3</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="52">
-        <v>4</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="47"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="22"/>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="46"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="46"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="50"/>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A8"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DAF05-B637-40CD-B14C-590C1AD93890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B60816-549C-48D7-B412-A392B3DFC2EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="5.13-5.17" sheetId="18" r:id="rId7"/>
     <sheet name="5.20-5.24" sheetId="21" r:id="rId8"/>
     <sheet name="5.27-5.31" sheetId="23" r:id="rId9"/>
+    <sheet name="6.3-6.6" sheetId="24" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -588,6 +589,30 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统整体流程测试，问题修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库已完成功能测试，提出修改内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改活动查询专家接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：6.3-6.6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -778,13 +803,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +982,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,24 +1027,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,18 +1036,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,7 +1057,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,17 +1360,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1306,14 +1380,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1345,7 +1419,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1368,7 +1442,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1389,7 +1463,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1410,7 +1484,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1517,7 +1591,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
@@ -1540,7 +1614,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1561,7 +1635,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="28">
         <v>3</v>
       </c>
@@ -1584,7 +1658,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -1684,6 +1758,149 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="48">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="74"/>
+      <c r="B6" s="48">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="48">
+        <v>100</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1702,17 +1919,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1722,14 +1939,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1761,7 +1978,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1782,7 +1999,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1801,7 +2018,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1820,7 +2037,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1839,7 +2056,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1860,7 +2077,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1879,7 +2096,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1896,7 +2113,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1913,7 +2130,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="34">
@@ -2084,17 +2301,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2104,14 +2321,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2143,7 +2360,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2162,7 +2379,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2179,7 +2396,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2196,7 +2413,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -2215,7 +2432,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2232,7 +2449,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2249,7 +2466,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -2302,7 +2519,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2321,7 +2538,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2338,7 +2555,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2384,17 +2601,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2404,14 +2621,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2443,7 +2660,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2464,7 +2681,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2483,7 +2700,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2502,7 +2719,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2521,7 +2738,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
@@ -2542,7 +2759,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2561,7 +2778,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2580,7 +2797,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2599,7 +2816,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -2620,7 +2837,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -2639,7 +2856,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -2658,7 +2875,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -2677,7 +2894,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -2698,7 +2915,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -2717,7 +2934,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -2766,17 +2983,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2786,14 +3003,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2825,7 +3042,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -2846,7 +3063,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -2865,18 +3082,18 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="49">
-        <v>1</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="58">
+        <v>1</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="64" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="66" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="65">
@@ -2886,29 +3103,29 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="64"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="65"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="49">
-        <v>1</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="58">
+        <v>1</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="64" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="66" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="65">
@@ -2918,18 +3135,18 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="64"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="65"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -2950,7 +3167,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -2969,7 +3186,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3066,18 +3283,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3085,6 +3290,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,17 +3323,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3126,14 +3343,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3165,7 +3382,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3186,7 +3403,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3205,7 +3422,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -3224,7 +3441,7 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3243,7 +3460,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3264,7 +3481,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3283,7 +3500,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3302,7 +3519,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3323,7 +3540,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3342,7 +3559,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="28">
         <v>3</v>
       </c>
@@ -3361,7 +3578,7 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3380,7 +3597,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -3401,7 +3618,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -3420,7 +3637,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -3479,17 +3696,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3499,14 +3716,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3538,7 +3755,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3559,7 +3776,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3578,7 +3795,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3597,7 +3814,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -3616,7 +3833,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3637,7 +3854,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3656,7 +3873,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="3"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>
@@ -3667,7 +3884,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3688,7 +3905,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3707,7 +3924,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3726,7 +3943,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="28">
         <v>4</v>
       </c>
@@ -3745,7 +3962,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -3766,7 +3983,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -3785,7 +4002,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -3804,7 +4021,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -3823,7 +4040,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -3842,7 +4059,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -3893,17 +4110,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3913,14 +4130,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3952,7 +4169,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -3973,7 +4190,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -3992,7 +4209,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4011,7 +4228,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4030,7 +4247,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4049,7 +4266,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="14">
         <v>6</v>
       </c>
@@ -4146,7 +4363,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="14">
@@ -4167,7 +4384,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="14">
         <v>2</v>
       </c>
@@ -4186,7 +4403,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="14">
         <v>3</v>
       </c>
@@ -4302,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4315,17 +4532,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4335,14 +4552,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4374,7 +4591,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -4395,7 +4612,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4414,7 +4631,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4433,7 +4650,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4452,7 +4669,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4471,7 +4688,7 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
@@ -4492,7 +4709,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -4511,7 +4728,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="14">
         <v>3</v>
       </c>
@@ -4530,7 +4747,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -4549,7 +4766,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="14">
@@ -4570,7 +4787,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -4589,7 +4806,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -4608,7 +4825,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="63" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="14">
@@ -4619,7 +4836,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="49" t="s">
         <v>179</v>
       </c>
       <c r="G16" s="15">
@@ -4629,7 +4846,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="14">
         <v>1</v>
       </c>
@@ -4638,7 +4855,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="49" t="s">
         <v>179</v>
       </c>
       <c r="G17" s="15">

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B60816-549C-48D7-B412-A392B3DFC2EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E67EA-AAF3-490F-9062-7FEA0FFE12E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="188">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>日期：6.3-6.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改查询专家接口，活动审核接口增加人数限制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +696,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -804,24 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -840,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,10 +975,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,18 +1029,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,18 +1048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,17 +1341,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1380,14 +1361,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1419,7 +1400,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1442,7 +1423,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1463,7 +1444,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1484,7 +1465,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1505,7 +1486,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1528,7 +1509,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1549,7 +1530,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1570,7 +1551,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1591,7 +1572,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
@@ -1614,7 +1595,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1635,7 +1616,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="28">
         <v>3</v>
       </c>
@@ -1658,7 +1639,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -1679,7 +1660,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7">
@@ -1702,7 +1683,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -1723,7 +1704,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -1763,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1775,17 +1756,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1795,17 +1776,17 @@
       <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -1834,70 +1815,87 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="48" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="48">
+      <c r="A5" s="64"/>
+      <c r="B5" s="49">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="48" t="s">
         <v>183</v>
       </c>
       <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
-      <c r="B6" s="48">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="48">
-        <v>100</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,17 +1917,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1939,14 +1937,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1978,7 +1976,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1999,7 +1997,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2018,7 +2016,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2037,7 +2035,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2056,7 +2054,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -2077,7 +2075,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2096,7 +2094,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2113,7 +2111,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2130,7 +2128,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="34">
@@ -2151,7 +2149,7 @@
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="37">
         <v>2</v>
       </c>
@@ -2170,7 +2168,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="34">
         <v>3</v>
       </c>
@@ -2189,13 +2187,13 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -2216,7 +2214,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -2235,7 +2233,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2254,7 +2252,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="14">
         <v>4</v>
       </c>
@@ -2301,17 +2299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2321,14 +2319,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2360,7 +2358,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2379,7 +2377,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2396,7 +2394,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2413,7 +2411,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -2432,7 +2430,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2449,7 +2447,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2466,7 +2464,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -2485,7 +2483,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -2502,7 +2500,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -2519,7 +2517,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2538,7 +2536,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2555,7 +2553,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2601,17 +2599,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2621,14 +2619,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2660,7 +2658,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2681,7 +2679,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2700,7 +2698,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2719,7 +2717,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2738,7 +2736,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
@@ -2759,7 +2757,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2778,7 +2776,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2797,7 +2795,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2816,7 +2814,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -2837,7 +2835,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -2856,7 +2854,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -2875,7 +2873,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -2894,7 +2892,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -2915,7 +2913,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -2934,7 +2932,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -2983,17 +2981,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3003,14 +3001,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3042,7 +3040,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3063,7 +3061,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -3082,71 +3080,71 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="59">
         <v>1</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="67">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="68"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="59">
         <v>1</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="66" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="67">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -3167,7 +3165,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -3186,7 +3184,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3283,6 +3281,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3290,18 +3300,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3323,17 +3321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3343,14 +3341,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3382,7 +3380,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3403,7 +3401,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3422,7 +3420,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -3441,7 +3439,7 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3460,7 +3458,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3481,7 +3479,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3500,7 +3498,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3519,7 +3517,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3540,7 +3538,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3559,7 +3557,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="28">
         <v>3</v>
       </c>
@@ -3578,7 +3576,7 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3597,7 +3595,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -3618,7 +3616,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -3637,7 +3635,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -3696,17 +3694,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3716,14 +3714,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3755,7 +3753,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3776,7 +3774,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3795,7 +3793,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3814,7 +3812,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -3833,7 +3831,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3854,7 +3852,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3873,7 +3871,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>
@@ -3884,7 +3882,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3905,7 +3903,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3924,7 +3922,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3943,7 +3941,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="28">
         <v>4</v>
       </c>
@@ -3962,7 +3960,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -3983,7 +3981,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4002,7 +4000,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4021,7 +4019,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -4040,7 +4038,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -4059,7 +4057,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -4110,17 +4108,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4130,14 +4128,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4169,7 +4167,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -4190,7 +4188,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4209,7 +4207,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4228,7 +4226,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4247,7 +4245,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4266,7 +4264,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="14">
         <v>6</v>
       </c>
@@ -4285,7 +4283,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="22">
@@ -4306,7 +4304,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="22">
         <v>2</v>
       </c>
@@ -4325,7 +4323,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -4344,7 +4342,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="22">
         <v>4</v>
       </c>
@@ -4363,7 +4361,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="14">
@@ -4384,7 +4382,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="14">
         <v>2</v>
       </c>
@@ -4403,7 +4401,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="14">
         <v>3</v>
       </c>
@@ -4422,7 +4420,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="22">
@@ -4443,7 +4441,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="22">
         <v>2</v>
       </c>
@@ -4462,7 +4460,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -4481,7 +4479,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="22">
         <v>4</v>
       </c>
@@ -4532,17 +4530,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4552,14 +4550,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4591,7 +4589,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -4612,7 +4610,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4631,7 +4629,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4650,7 +4648,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4669,7 +4667,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4688,7 +4686,7 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
@@ -4709,7 +4707,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -4728,7 +4726,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="14">
         <v>3</v>
       </c>
@@ -4747,7 +4745,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -4766,7 +4764,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="14">
@@ -4787,7 +4785,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -4806,7 +4804,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -4825,7 +4823,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="14">
@@ -4836,7 +4834,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>179</v>
       </c>
       <c r="G16" s="15">
@@ -4846,7 +4844,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="14">
         <v>1</v>
       </c>
@@ -4855,7 +4853,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="48" t="s">
         <v>179</v>
       </c>
       <c r="G17" s="15">

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E67EA-AAF3-490F-9062-7FEA0FFE12E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2DDAB-A6DC-48A7-B848-A74D21D9CF66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -621,6 +621,14 @@
   </si>
   <si>
     <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改关联专家接口增加专业，修改消息类型显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -978,12 +986,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,16 +1037,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1744,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1794,7 @@
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -1818,64 +1826,66 @@
       <c r="A4" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="48" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
-      <c r="B5" s="49">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="48" t="s">
         <v>183</v>
       </c>
       <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="64"/>
-      <c r="B6" s="49">
+      <c r="B6" s="50">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50" t="s">
         <v>183</v>
       </c>
       <c r="G6" s="15">
         <v>1</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="64"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>186</v>
       </c>
@@ -1889,13 +1899,30 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3080,71 +3107,71 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="59">
         <v>1</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="66">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="59">
         <v>1</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="66">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -3165,7 +3192,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -3184,7 +3211,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3281,18 +3308,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3300,6 +3315,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,7 +3485,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3479,7 +3506,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3498,7 +3525,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3831,7 +3858,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3852,7 +3879,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3871,7 +3898,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2DDAB-A6DC-48A7-B848-A74D21D9CF66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACBAD7B-A4E8-4335-BAEA-732EB9AB50F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="200">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -629,6 +629,46 @@
   </si>
   <si>
     <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员查询单位预览，缴费页面修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个页面端浏览专委会功能，会员条件查询修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>党建工作填写方式及相关页面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端首页页面，主营业务，会员到期调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端单位维护，及非流程性页面改动</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +1032,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,16 +1080,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,17 +1392,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1369,14 +1412,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1408,7 +1451,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -1431,7 +1474,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1452,7 +1495,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1473,7 +1516,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1494,7 +1537,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -1517,7 +1560,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1538,7 +1581,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1559,7 +1602,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1580,7 +1623,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
@@ -1603,7 +1646,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1624,7 +1667,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="28">
         <v>3</v>
       </c>
@@ -1647,7 +1690,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -1668,7 +1711,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7">
@@ -1691,7 +1734,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -1712,7 +1755,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="7">
         <v>3</v>
       </c>
@@ -1752,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1764,17 +1807,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1784,14 +1827,14 @@
       <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
@@ -1823,7 +1866,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="50">
@@ -1844,7 +1887,7 @@
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="50">
         <v>2</v>
       </c>
@@ -1863,7 +1906,7 @@
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="50">
         <v>3</v>
       </c>
@@ -1882,7 +1925,7 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -1901,7 +1944,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
         <v>188</v>
@@ -1917,12 +1960,110 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="65"/>
+      <c r="B10" s="51">
+        <v>2</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="51">
+        <v>3</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
+      <c r="B12" s="51">
+        <v>4</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="51">
+        <v>5</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,17 +2085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1964,14 +2105,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2003,7 +2144,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2024,7 +2165,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2043,7 +2184,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2062,7 +2203,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2081,7 +2222,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -2102,7 +2243,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2121,7 +2262,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2138,7 +2279,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2155,7 +2296,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="34">
@@ -2176,7 +2317,7 @@
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="37">
         <v>2</v>
       </c>
@@ -2195,7 +2336,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="34">
         <v>3</v>
       </c>
@@ -2214,13 +2355,13 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -2241,7 +2382,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -2260,7 +2401,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2279,7 +2420,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="14">
         <v>4</v>
       </c>
@@ -2326,17 +2467,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2346,14 +2487,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2385,7 +2526,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2404,7 +2545,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2421,7 +2562,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2438,7 +2579,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -2457,7 +2598,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -2474,7 +2615,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2491,7 +2632,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -2510,7 +2651,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -2527,7 +2668,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -2544,7 +2685,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
@@ -2563,7 +2704,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -2580,7 +2721,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -2626,17 +2767,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2646,14 +2787,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2685,7 +2826,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -2706,7 +2847,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2725,7 +2866,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2744,7 +2885,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2763,7 +2904,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
@@ -2784,7 +2925,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2803,7 +2944,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2822,7 +2963,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="14">
         <v>4</v>
       </c>
@@ -2841,7 +2982,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -2862,7 +3003,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -2881,7 +3022,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -2900,7 +3041,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -2919,7 +3060,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -2940,7 +3081,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -2959,7 +3100,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -3008,17 +3149,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3028,14 +3169,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3067,7 +3208,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3088,7 +3229,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -3107,71 +3248,71 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="60">
         <v>1</v>
       </c>
       <c r="C6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="67" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="69"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="60">
         <v>1</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="67" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="68">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="69"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -3192,7 +3333,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -3211,7 +3352,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3308,6 +3449,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3315,18 +3468,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3348,17 +3489,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3368,14 +3509,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3407,7 +3548,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3428,7 +3569,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3447,7 +3588,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -3466,7 +3607,7 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3485,7 +3626,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3506,7 +3647,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3525,7 +3666,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3544,7 +3685,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3565,7 +3706,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3584,7 +3725,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="28">
         <v>3</v>
       </c>
@@ -3603,7 +3744,7 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3622,7 +3763,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -3643,7 +3784,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -3662,7 +3803,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -3721,17 +3862,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3741,14 +3882,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3780,7 +3921,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -3801,7 +3942,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3820,7 +3961,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3839,7 +3980,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -3858,7 +3999,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3879,7 +4020,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3898,7 +4039,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="3"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>
@@ -3909,7 +4050,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -3930,7 +4071,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3949,7 +4090,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3968,7 +4109,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="28">
         <v>4</v>
       </c>
@@ -3987,7 +4128,7 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4008,7 +4149,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4027,7 +4168,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4046,7 +4187,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -4065,7 +4206,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -4084,7 +4225,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -4135,17 +4276,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4155,14 +4296,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4194,7 +4335,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -4215,7 +4356,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4234,7 +4375,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4253,7 +4394,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4272,7 +4413,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4291,7 +4432,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="14">
         <v>6</v>
       </c>
@@ -4310,7 +4451,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="22">
@@ -4331,7 +4472,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="22">
         <v>2</v>
       </c>
@@ -4350,7 +4491,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -4369,7 +4510,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="22">
         <v>4</v>
       </c>
@@ -4388,7 +4529,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="14">
@@ -4409,7 +4550,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="14">
         <v>2</v>
       </c>
@@ -4428,7 +4569,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="14">
         <v>3</v>
       </c>
@@ -4447,7 +4588,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="22">
@@ -4468,7 +4609,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="22">
         <v>2</v>
       </c>
@@ -4487,7 +4628,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -4506,7 +4647,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="22">
         <v>4</v>
       </c>
@@ -4557,17 +4698,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4577,14 +4718,14 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4616,7 +4757,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -4637,7 +4778,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4656,7 +4797,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4675,7 +4816,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4694,7 +4835,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4713,7 +4854,7 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
@@ -4734,7 +4875,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -4753,7 +4894,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="14">
         <v>3</v>
       </c>
@@ -4772,7 +4913,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -4791,7 +4932,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="14">
@@ -4812,7 +4953,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -4831,7 +4972,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -4850,7 +4991,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="14">
@@ -4871,7 +5012,7 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="14">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACBAD7B-A4E8-4335-BAEA-732EB9AB50F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463766C4-C19E-4BD0-AC4C-B7162850ABB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="207">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -669,6 +669,34 @@
   </si>
   <si>
     <t>管理端单位维护，及非流程性页面改动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一至周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端查询专家信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       专家基本信息审核发送站内信</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    增加既有调用会员系统登录第三方接口</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,18 +1108,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,6 +1127,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,15 +1826,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
@@ -2057,8 +2089,68 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="24">
+        <v>1</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
+      <c r="B16" s="24">
+        <v>3</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2067,6 +2159,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3248,71 +3341,71 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="60">
         <v>1</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="60"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="60"/>
-      <c r="C9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
@@ -3333,7 +3426,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -3352,7 +3445,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3449,18 +3542,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3468,6 +3549,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3626,7 +3719,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -3647,7 +3740,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -3666,7 +3759,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -3999,7 +4092,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
@@ -4020,7 +4113,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -4039,7 +4132,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="3"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463766C4-C19E-4BD0-AC4C-B7162850ABB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="781" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="195">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -577,134 +571,73 @@
   </si>
   <si>
     <t>会员系统测试，问题确认。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>专家库基本资料功能需求与协会确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔健</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：6.3-6.6</t>
   </si>
   <si>
     <t>会员系统整体流程测试，问题修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>专家库已完成功能测试，提出修改内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修改活动查询专家接口</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：6.3-6.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修改查询专家接口，活动审核接口增加人数限制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修改关联专家接口增加专业，修改消息类型显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程欢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>会员查询单位预览，缴费页面修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>多个页面端浏览专委会功能，会员条件查询修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>党建工作填写方式及相关页面调整</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户端首页页面，主营业务，会员到期调整</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>管理端单位维护，及非流程性页面改动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐道海</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一至周二</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    增加既有调用会员系统登录第三方接口</t>
   </si>
   <si>
     <t>管理端查询专家信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       专家基本信息审核发送站内信</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    增加既有调用会员系统登录第三方接口</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统-会员管理条件查询修改，专家库标签分页，站内信，标签验重</t>
+  </si>
+  <si>
+    <t>专家审核接口修改，专业查询，批量审核发站内信</t>
+  </si>
+  <si>
+    <t>加退回原因，站内信，规则查询，管理员修改会员申请</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +659,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -743,7 +677,63 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,27 +742,280 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -787,6 +1030,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -889,74 +1145,330 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -964,15 +1476,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,25 +1501,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,21 +1530,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,14 +1563,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1048,102 +1590,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1401,41 +1903,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+      <selection activeCell="A1" sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="32.25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="56" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="38" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" s="54" customFormat="1" ht="35.65" customHeight="1" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" s="55" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1443,17 +1945,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" s="39" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" s="55" customFormat="1" ht="32.1" customHeight="1" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1481,56 +1983,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" s="55" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" s="55" customFormat="1" ht="33" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="39"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3"/>
@@ -1540,18 +2042,18 @@
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="43"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
@@ -1561,20 +2063,20 @@
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+    <row r="8" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3"/>
@@ -1584,18 +2086,18 @@
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+    <row r="9" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A9" s="33"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3"/>
@@ -1605,18 +2107,18 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+    <row r="10" s="55" customFormat="1" ht="35.25" customHeight="1" spans="1:9">
+      <c r="A10" s="33"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3"/>
@@ -1626,18 +2128,18 @@
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" s="39" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+    <row r="11" s="55" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A11" s="34"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="3"/>
@@ -1647,20 +2149,20 @@
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+    <row r="12" s="55" customFormat="1" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="3"/>
@@ -1670,18 +2172,18 @@
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+    <row r="13" s="55" customFormat="1" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A13" s="58"/>
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="3"/>
@@ -1691,506 +2193,568 @@
       <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="59">
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="28">
+    <row r="14" s="55" customFormat="1" ht="39.75" customHeight="1" spans="1:9">
+      <c r="A14" s="58"/>
+      <c r="B14" s="40">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="43">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="61">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A15" s="62"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="46">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="7">
+      <c r="G16" s="65">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="33"/>
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="46">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="7">
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="28.5" spans="1:9">
+      <c r="A18" s="34"/>
+      <c r="B18" s="9">
         <v>3</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="46">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="65">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF313999-1050-4EA0-8203-BB1B7C3E8AF7}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="61.25" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="50">
+      <c r="C13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="50">
+      <c r="C15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="50">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="51" t="s">
+      <c r="C16" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="25">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51">
+      <c r="C18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51">
-        <v>4</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51">
-        <v>5</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="51" t="s">
+      <c r="C19" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="24">
-        <v>1</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="24">
-        <v>2</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="24">
-        <v>3</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="25">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2198,17 +2762,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2236,52 +2800,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="39"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="3"/>
@@ -2289,18 +2853,18 @@
       <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3"/>
@@ -2308,58 +2872,58 @@
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <v>0.8</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="39"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="39"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="3"/>
@@ -2367,16 +2931,16 @@
       <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="39"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="3"/>
@@ -2384,195 +2948,196 @@
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="37">
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" ht="33" spans="1:9">
+      <c r="A13" s="33"/>
+      <c r="B13" s="53">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="34">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="33" spans="1:9">
+      <c r="A14" s="33"/>
+      <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" hidden="1" spans="1:1">
+      <c r="A15" s="33"/>
+    </row>
+    <row r="16" hidden="1" spans="1:1">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="25">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="5">
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="33"/>
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="25">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="5">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="33"/>
+      <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="25">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="14">
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34"/>
+      <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2580,17 +3145,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2618,31 +3183,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="3"/>
@@ -2650,16 +3215,16 @@
       <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="43"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="3"/>
@@ -2667,35 +3232,35 @@
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="39"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="3"/>
@@ -2703,16 +3268,16 @@
       <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+    <row r="9" ht="33" spans="1:9">
+      <c r="A9" s="43"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="3"/>
@@ -2720,159 +3285,160 @@
       <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="5">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="33"/>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="33"/>
+      <c r="B12" s="20">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="14">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="14">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2880,17 +3446,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2918,52 +3484,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="39"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="3"/>
@@ -2971,18 +3537,18 @@
       <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="3"/>
@@ -2990,58 +3556,58 @@
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="18">
         <v>0.8</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="39"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="39"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="3"/>
@@ -3049,212 +3615,213 @@
       <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="14">
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="43"/>
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="5">
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="5">
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="5">
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="33" spans="1:9">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="5">
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="5">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="33" spans="1:9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3262,17 +3829,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3300,118 +3867,118 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="28">
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="30">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="60">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="68" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="67"/>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="60">
-        <v>1</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="68" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="67"/>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="3"/>
@@ -3419,126 +3986,126 @@
       <c r="F10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="14">
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="B12" s="5">
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="27"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="27"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="27"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="27"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="27"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3547,54 +4114,55 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3602,17 +4170,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3640,71 +4208,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="28">
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="30">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="43"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="3"/>
@@ -3712,58 +4280,58 @@
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="15"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="15"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="38" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="3"/>
@@ -3771,77 +4339,77 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="39"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="28">
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40">
         <v>3</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="30">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="G13" s="42">
+        <v>1</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="38" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="3"/>
@@ -3849,125 +4417,126 @@
       <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="5">
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="5">
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3975,17 +4544,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4013,52 +4582,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="39"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="39"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="3"/>
@@ -4066,128 +4635,128 @@
       <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="18">
         <v>0.9</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="28">
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="30">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A9" s="15"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+    <row r="10" ht="3" hidden="1" customHeight="1" spans="1:9">
+      <c r="A10" s="15"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+    <row r="12" ht="33" spans="1:9">
+      <c r="A12" s="39"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="39"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="38" t="s">
         <v>132</v>
       </c>
       <c r="D13" s="3"/>
@@ -4195,193 +4764,194 @@
       <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="18">
         <v>0.9</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="28">
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40">
         <v>4</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="30">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="5">
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="5">
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="19"/>
+      <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="5">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="19"/>
+      <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="5">
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="5">
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="25"/>
+      <c r="B20" s="6">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="14"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4389,17 +4959,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4427,383 +4997,384 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="5">
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="5">
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="5">
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="5">
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="14">
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="19"/>
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="22">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="22">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="22">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="22">
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="14">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="14">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="24" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="25">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="22">
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="22">
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="33"/>
+      <c r="B19" s="32">
         <v>3</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="22">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="34"/>
+      <c r="B20" s="32">
         <v>4</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="14"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4811,17 +5382,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4849,314 +5420,314 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="5">
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="5">
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="5">
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="9">
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="23">
         <v>0.9</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="14">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="14">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="24"/>
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="14">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="14">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="14">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="25"/>
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088C4DC-CA5E-45A3-A841-34682F73C6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E2015-5B75-4843-8626-148C4073A563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="206">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -642,15 +642,39 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>机管局项目数据修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>专家库系统测试内容修改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>周一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关局项目数据修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询专家列表接口增加查询条件，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统上线数据处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统上线前端部署，改用ip+端口方式访问用户端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1021,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,24 +1060,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,17 +1069,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,17 +1381,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="41" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1374,14 +1401,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1413,7 +1440,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1436,7 +1463,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="42" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1457,7 +1484,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1478,7 +1505,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1499,7 +1526,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1522,7 +1549,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1543,7 +1570,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1564,7 +1591,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1585,7 +1612,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1608,7 +1635,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1629,7 +1656,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="42" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="31">
         <v>3</v>
       </c>
@@ -1652,7 +1679,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1673,7 +1700,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1696,7 +1723,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1717,7 +1744,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1770,17 +1797,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1790,14 +1817,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1829,7 +1856,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1850,7 +1877,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -1869,7 +1896,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1888,7 +1915,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1907,7 +1934,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -1924,7 +1951,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -1945,7 +1972,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -1964,7 +1991,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -1983,7 +2010,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2002,7 +2029,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2021,7 +2048,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2042,7 +2069,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2061,7 +2088,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2080,7 +2107,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2101,7 +2128,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2120,7 +2147,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2156,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CB71F-9706-43D6-99DE-2C2F3F3485C6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,17 +2195,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2188,14 +2215,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2227,76 +2254,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="4">
+      <c r="A5" s="64"/>
+      <c r="B5" s="50">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="6" t="s">
         <v>195</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="4">
+      <c r="A6" s="64"/>
+      <c r="B6" s="50">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50" t="s">
         <v>195</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="4">
+      <c r="A7" s="64"/>
+      <c r="B7" s="50">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="50" t="s">
+        <v>200</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2325,17 +2396,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2345,14 +2416,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -2384,7 +2455,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2405,7 +2476,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2424,7 +2495,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2443,7 +2514,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2462,7 +2533,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -2483,7 +2554,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2502,7 +2573,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2519,7 +2590,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -2536,7 +2607,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="37">
@@ -2557,7 +2628,7 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="40">
         <v>2</v>
       </c>
@@ -2576,7 +2647,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="37">
         <v>3</v>
       </c>
@@ -2595,13 +2666,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -2622,7 +2693,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -2641,7 +2712,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2660,7 +2731,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -2707,17 +2778,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2727,14 +2798,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -2766,7 +2837,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2785,7 +2856,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2802,7 +2873,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2819,7 +2890,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -2838,7 +2909,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2855,7 +2926,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2872,7 +2943,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -2891,7 +2962,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -2908,7 +2979,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="17">
         <v>3</v>
       </c>
@@ -2925,7 +2996,7 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -2944,7 +3015,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -2961,7 +3032,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3007,17 +3078,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3027,14 +3098,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3066,7 +3137,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3087,7 +3158,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3106,7 +3177,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3125,7 +3196,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3144,7 +3215,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3165,7 +3236,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3184,7 +3255,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3203,7 +3274,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3222,7 +3293,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3243,7 +3314,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3262,7 +3333,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3281,7 +3352,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3300,7 +3371,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3321,7 +3392,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -3340,7 +3411,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -3389,17 +3460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3409,14 +3480,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3448,7 +3519,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3469,7 +3540,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="31">
         <v>2</v>
       </c>
@@ -3488,71 +3559,71 @@
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="52">
-        <v>1</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="66">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="52">
-        <v>1</v>
-      </c>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="66">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -3573,7 +3644,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -3592,7 +3663,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3689,18 +3760,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3708,6 +3767,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3729,17 +3800,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3749,14 +3820,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3788,7 +3859,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3809,7 +3880,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3828,7 +3899,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="31">
         <v>3</v>
       </c>
@@ -3847,7 +3918,7 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3866,7 +3937,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3887,7 +3958,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3906,7 +3977,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3925,7 +3996,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -3946,7 +4017,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -3965,7 +4036,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="31">
         <v>3</v>
       </c>
@@ -3984,7 +4055,7 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4003,7 +4074,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4024,7 +4095,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4043,7 +4114,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4102,17 +4173,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4122,14 +4193,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4161,7 +4232,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4182,7 +4253,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4201,7 +4272,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4220,7 +4291,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="31">
         <v>4</v>
       </c>
@@ -4239,7 +4310,7 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4260,7 +4331,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4279,7 +4350,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="2"/>
       <c r="C10" s="30"/>
       <c r="D10" s="2"/>
@@ -4290,7 +4361,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4311,7 +4382,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4330,7 +4401,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4349,7 +4420,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="31">
         <v>4</v>
       </c>
@@ -4368,7 +4439,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4389,7 +4460,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4408,7 +4479,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4427,7 +4498,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -4446,7 +4517,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -4465,7 +4536,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -4516,17 +4587,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4536,14 +4607,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4575,7 +4646,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -4596,7 +4667,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4615,7 +4686,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4634,7 +4705,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4653,7 +4724,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4672,7 +4743,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -4691,7 +4762,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="27">
@@ -4712,7 +4783,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -4731,7 +4802,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="27">
         <v>3</v>
       </c>
@@ -4750,7 +4821,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="27">
         <v>4</v>
       </c>
@@ -4769,7 +4840,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -4790,7 +4861,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -4809,7 +4880,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -4828,7 +4899,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="27">
@@ -4849,7 +4920,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="27">
         <v>2</v>
       </c>
@@ -4868,7 +4939,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="27">
         <v>3</v>
       </c>
@@ -4887,7 +4958,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="27">
         <v>4</v>
       </c>
@@ -4938,17 +5009,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4958,14 +5029,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4997,7 +5068,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5018,7 +5089,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5037,7 +5108,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5056,7 +5127,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5075,7 +5146,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -5094,7 +5165,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5115,7 +5186,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5134,7 +5205,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5153,7 +5224,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5172,7 +5243,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5193,7 +5264,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5212,7 +5283,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5231,7 +5302,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5252,7 +5323,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E2015-5B75-4843-8626-148C4073A563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A98FB0-E7EC-41D3-8CB2-E08D98DD747B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,14 +23,14 @@
     <sheet name="5.20-5.24" sheetId="21" r:id="rId8"/>
     <sheet name="5.27-5.31" sheetId="23" r:id="rId9"/>
     <sheet name="6.3-6.6" sheetId="24" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId11"/>
+    <sheet name="6.10-6.14" sheetId="25" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -675,6 +675,54 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：6.10-6.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程欢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理，附件上传，用户端站内信下载</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联会员条件查询修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整体表单格式校验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核报名及管理端修改会员信息短信通知及站内信提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目表单，数据表，个别页面样式改动</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1072,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,18 +1120,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1139,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,17 +1444,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="41" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1401,14 +1464,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1440,7 +1503,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1463,7 +1526,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="42" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1484,7 +1547,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1505,7 +1568,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1526,7 +1589,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1549,7 +1612,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1570,7 +1633,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1591,7 +1654,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1612,7 +1675,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1635,7 +1698,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1656,7 +1719,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="42" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="31">
         <v>3</v>
       </c>
@@ -1679,7 +1742,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1700,7 +1763,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1723,7 +1786,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1744,7 +1807,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1786,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1797,17 +1860,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1817,14 +1880,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1856,7 +1919,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1877,7 +1940,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -1896,7 +1959,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1915,7 +1978,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1934,7 +1997,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -1951,7 +2014,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -1972,7 +2035,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -1991,7 +2054,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2010,7 +2073,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2029,7 +2092,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2048,7 +2111,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2069,7 +2132,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2088,7 +2151,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2107,7 +2170,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2128,7 +2191,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2147,7 +2210,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2183,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CB71F-9706-43D6-99DE-2C2F3F3485C6}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2195,17 +2258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2215,14 +2278,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2254,7 +2317,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="50">
@@ -2275,7 +2338,7 @@
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="50">
         <v>2</v>
       </c>
@@ -2294,7 +2357,7 @@
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="50">
         <v>3</v>
       </c>
@@ -2313,7 +2376,7 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -2332,7 +2395,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2351,7 +2414,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2369,12 +2432,129 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="51">
+        <v>2</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="76">
+        <v>1</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="51">
+        <v>4</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="51">
+        <v>5</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,17 +2576,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2416,14 +2596,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -2455,7 +2635,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2476,7 +2656,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2495,7 +2675,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2514,7 +2694,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2533,7 +2713,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -2554,7 +2734,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2573,7 +2753,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2590,7 +2770,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -2607,7 +2787,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="37">
@@ -2628,7 +2808,7 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="40">
         <v>2</v>
       </c>
@@ -2647,7 +2827,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="37">
         <v>3</v>
       </c>
@@ -2666,13 +2846,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -2693,7 +2873,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -2712,7 +2892,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2731,7 +2911,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -2778,17 +2958,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2798,14 +2978,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -2837,7 +3017,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2856,7 +3036,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2873,7 +3053,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2890,7 +3070,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -2909,7 +3089,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -2926,7 +3106,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2943,7 +3123,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -2962,7 +3142,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -2979,7 +3159,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="17">
         <v>3</v>
       </c>
@@ -2996,7 +3176,7 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -3015,7 +3195,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -3032,7 +3212,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3078,17 +3258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3098,14 +3278,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3137,7 +3317,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3158,7 +3338,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3177,7 +3357,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3196,7 +3376,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3215,7 +3395,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3236,7 +3416,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3255,7 +3435,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3274,7 +3454,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3293,7 +3473,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3314,7 +3494,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3333,7 +3513,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3352,7 +3532,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3371,7 +3551,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3392,7 +3572,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -3411,7 +3591,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -3460,17 +3640,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3480,14 +3660,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3519,7 +3699,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3540,7 +3720,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="31">
         <v>2</v>
       </c>
@@ -3559,71 +3739,71 @@
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="60">
         <v>1</v>
       </c>
       <c r="C6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="67" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="69"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="60">
         <v>1</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="67" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="68">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="69"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -3644,7 +3824,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -3663,7 +3843,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3760,6 +3940,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3767,18 +3959,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3800,17 +3980,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3820,14 +4000,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3859,7 +4039,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3880,7 +4060,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3899,7 +4079,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="31">
         <v>3</v>
       </c>
@@ -3918,7 +4098,7 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3937,7 +4117,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -3958,7 +4138,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3977,7 +4157,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3996,7 +4176,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4017,7 +4197,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4036,7 +4216,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31">
         <v>3</v>
       </c>
@@ -4055,7 +4235,7 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4074,7 +4254,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4095,7 +4275,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4114,7 +4294,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4173,17 +4353,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4193,14 +4373,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4232,7 +4412,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4253,7 +4433,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4272,7 +4452,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4291,7 +4471,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="31">
         <v>4</v>
       </c>
@@ -4310,7 +4490,7 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4331,7 +4511,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4350,7 +4530,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="2"/>
       <c r="C10" s="30"/>
       <c r="D10" s="2"/>
@@ -4361,7 +4541,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4382,7 +4562,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4401,7 +4581,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4420,7 +4600,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="31">
         <v>4</v>
       </c>
@@ -4439,7 +4619,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4460,7 +4640,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4479,7 +4659,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4498,7 +4678,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -4517,7 +4697,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -4536,7 +4716,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -4587,17 +4767,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4607,14 +4787,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4646,7 +4826,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -4667,7 +4847,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4686,7 +4866,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4705,7 +4885,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4724,7 +4904,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4743,7 +4923,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -4762,7 +4942,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="27">
@@ -4783,7 +4963,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -4802,7 +4982,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="27">
         <v>3</v>
       </c>
@@ -4821,7 +5001,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="27">
         <v>4</v>
       </c>
@@ -4840,7 +5020,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -4861,7 +5041,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -4880,7 +5060,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -4899,7 +5079,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="27">
@@ -4920,7 +5100,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="27">
         <v>2</v>
       </c>
@@ -4939,7 +5119,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="27">
         <v>3</v>
       </c>
@@ -4958,7 +5138,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="27">
         <v>4</v>
       </c>
@@ -5009,17 +5189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5029,14 +5209,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -5068,7 +5248,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5089,7 +5269,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5108,7 +5288,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5127,7 +5307,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5146,7 +5326,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -5165,7 +5345,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5186,7 +5366,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5205,7 +5385,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5224,7 +5404,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5243,7 +5423,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5264,7 +5444,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5283,7 +5463,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5302,7 +5482,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5323,7 +5503,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\zhoubao\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A98FB0-E7EC-41D3-8CB2-E08D98DD747B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2790F183-912E-43F6-9A4B-2ADBC4D15771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,19 @@
     <sheet name="6.3-6.6" sheetId="24" r:id="rId10"/>
     <sheet name="6.10-6.14" sheetId="25" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="225">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -725,12 +732,43 @@
     <t>项目表单，数据表，个别页面样式改动</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>齐道海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件接口修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改会员消息管理，附件上传等接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一至周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  专家基本信息已处理待处理接口修改测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三至周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +810,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -918,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1121,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,18 +1169,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,16 +1190,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1444,17 +1505,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="41" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1464,14 +1525,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1503,7 +1564,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1526,7 +1587,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="42" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1547,7 +1608,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1568,7 +1629,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1589,7 +1650,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1612,7 +1673,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1633,7 +1694,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1654,7 +1715,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="42" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1675,7 +1736,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="42" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1698,7 +1759,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1719,7 +1780,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="42" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="31">
         <v>3</v>
       </c>
@@ -1742,7 +1803,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1763,7 +1824,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1786,7 +1847,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1807,7 +1868,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1860,17 +1921,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1880,14 +1941,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1919,7 +1980,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1940,7 +2001,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -1959,7 +2020,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1978,7 +2039,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1997,7 +2058,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -2014,7 +2075,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -2035,7 +2096,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2054,7 +2115,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2073,7 +2134,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2092,7 +2153,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2111,7 +2172,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2132,7 +2193,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2151,7 +2212,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2170,7 +2231,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2191,7 +2252,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2210,7 +2271,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2246,29 +2307,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CB71F-9706-43D6-99DE-2C2F3F3485C6}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="6" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2278,14 +2340,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2317,7 +2379,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="50">
@@ -2338,7 +2400,7 @@
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="50">
         <v>2</v>
       </c>
@@ -2357,7 +2419,7 @@
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="50">
         <v>3</v>
       </c>
@@ -2376,7 +2438,7 @@
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -2395,7 +2457,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2414,7 +2476,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2433,7 +2495,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>207</v>
       </c>
       <c r="B10" s="51">
@@ -2454,7 +2516,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51">
         <v>2</v>
       </c>
@@ -2473,37 +2535,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="55">
+      <c r="A12" s="57"/>
+      <c r="B12" s="56">
         <v>3</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="76">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="G12" s="75">
+        <v>1</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="51">
         <v>4</v>
       </c>
@@ -2522,7 +2584,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="51">
         <v>5</v>
       </c>
@@ -2540,8 +2602,76 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="52">
+        <v>1</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="52">
+        <v>2</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="56">
+        <v>3</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
@@ -2551,13 +2681,10 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2576,17 +2703,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2596,14 +2723,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -2635,7 +2762,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2656,7 +2783,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2675,7 +2802,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2694,7 +2821,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2713,7 +2840,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -2734,7 +2861,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2753,7 +2880,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2770,7 +2897,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -2787,7 +2914,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="37">
@@ -2808,7 +2935,7 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="40">
         <v>2</v>
       </c>
@@ -2827,7 +2954,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="37">
         <v>3</v>
       </c>
@@ -2846,13 +2973,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -2873,7 +3000,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -2892,7 +3019,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2911,7 +3038,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -2958,17 +3085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2978,14 +3105,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3017,7 +3144,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3036,7 +3163,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3053,7 +3180,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3070,7 +3197,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -3089,7 +3216,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3106,7 +3233,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3123,7 +3250,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -3142,7 +3269,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -3159,7 +3286,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="17">
         <v>3</v>
       </c>
@@ -3176,7 +3303,7 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -3195,7 +3322,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -3212,7 +3339,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3258,17 +3385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3278,14 +3405,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3317,7 +3444,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3338,7 +3465,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3357,7 +3484,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3376,7 +3503,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3395,7 +3522,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3416,7 +3543,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3435,7 +3562,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3454,7 +3581,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3473,7 +3600,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3494,7 +3621,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3513,7 +3640,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3532,7 +3659,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3551,7 +3678,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3572,7 +3699,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -3591,7 +3718,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -3640,17 +3767,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3660,14 +3787,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -3699,7 +3826,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -3720,7 +3847,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="31">
         <v>2</v>
       </c>
@@ -3739,18 +3866,18 @@
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="60">
-        <v>1</v>
-      </c>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="61">
+        <v>1</v>
+      </c>
+      <c r="C6" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="70" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="69" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="68">
@@ -3760,29 +3887,29 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="68"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="60">
-        <v>1</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="61">
+        <v>1</v>
+      </c>
+      <c r="C8" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="69" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="68">
@@ -3792,18 +3919,18 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="68"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -3824,7 +3951,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -3843,7 +3970,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -3940,18 +4067,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3959,6 +4074,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3980,17 +4107,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4000,14 +4127,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4039,7 +4166,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4060,7 +4187,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4079,7 +4206,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="31">
         <v>3</v>
       </c>
@@ -4098,7 +4225,7 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4117,7 +4244,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4138,7 +4265,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4157,7 +4284,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4176,7 +4303,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4197,7 +4324,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4216,7 +4343,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="31">
         <v>3</v>
       </c>
@@ -4235,7 +4362,7 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4254,7 +4381,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4275,7 +4402,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4294,7 +4421,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4353,17 +4480,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4373,14 +4500,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4412,7 +4539,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4433,7 +4560,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4452,7 +4579,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4471,7 +4598,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="31">
         <v>4</v>
       </c>
@@ -4490,7 +4617,7 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4511,7 +4638,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4530,7 +4657,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2"/>
       <c r="C10" s="30"/>
       <c r="D10" s="2"/>
@@ -4541,7 +4668,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4562,7 +4689,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4581,7 +4708,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4600,7 +4727,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="31">
         <v>4</v>
       </c>
@@ -4619,7 +4746,7 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4640,7 +4767,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4659,7 +4786,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4678,7 +4805,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -4697,7 +4824,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -4716,7 +4843,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -4767,17 +4894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4787,14 +4914,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4826,7 +4953,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -4847,7 +4974,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4866,7 +4993,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4885,7 +5012,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4904,7 +5031,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4923,7 +5050,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -4942,7 +5069,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="27">
@@ -4963,7 +5090,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -4982,7 +5109,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="27">
         <v>3</v>
       </c>
@@ -5001,7 +5128,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="27">
         <v>4</v>
       </c>
@@ -5020,7 +5147,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -5041,7 +5168,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -5060,7 +5187,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -5079,7 +5206,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="27">
@@ -5100,7 +5227,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="27">
         <v>2</v>
       </c>
@@ -5119,7 +5246,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="27">
         <v>3</v>
       </c>
@@ -5138,7 +5265,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="27">
         <v>4</v>
       </c>
@@ -5189,17 +5316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5209,14 +5336,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -5248,7 +5375,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5269,7 +5396,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5288,7 +5415,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5307,7 +5434,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5326,7 +5453,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -5345,7 +5472,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5366,7 +5493,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5385,7 +5512,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5404,7 +5531,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5423,7 +5550,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5444,7 +5571,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5463,7 +5590,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5482,7 +5609,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5503,7 +5630,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DA0CC-2D63-45D7-A0F3-FF6C745B0B49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589192A-F6AD-4B3B-A2EE-13B78CBF94FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,14 +24,14 @@
     <sheet name="5.27-5.31" sheetId="23" r:id="rId9"/>
     <sheet name="6.3-6.6" sheetId="24" r:id="rId10"/>
     <sheet name="6.10-6.14" sheetId="25" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId12"/>
+    <sheet name="6.17-6.21" sheetId="26" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="223">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -709,13 +709,29 @@
     <t>周一</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家抽取列表接口修改，发布任务接口修改，功能测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：6.17-6.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -948,13 +964,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1077,6 +1093,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,24 +1129,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,18 +1138,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,7 +1159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1152,10 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1435,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
@@ -1449,17 +1465,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1469,14 +1485,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1508,7 +1524,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1531,7 +1547,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1552,7 +1568,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1573,7 +1589,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1594,7 +1610,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1617,7 +1633,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1638,7 +1654,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1659,7 +1675,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1680,7 +1696,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1703,7 +1719,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1724,7 +1740,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="35">
         <v>3</v>
       </c>
@@ -1747,7 +1763,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1768,7 +1784,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1791,7 +1807,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1812,7 +1828,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1885,14 +1901,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2253,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2284,14 +2300,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2323,7 +2339,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2344,7 +2360,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2363,7 +2379,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2382,7 +2398,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2401,7 +2417,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2439,7 +2455,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4">
@@ -2460,7 +2476,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -2479,37 +2495,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="60">
+      <c r="A12" s="58"/>
+      <c r="B12" s="57">
         <v>3</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="79">
-        <v>1</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="G12" s="76">
+        <v>1</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2528,7 +2544,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="4">
         <v>5</v>
       </c>
@@ -2547,7 +2563,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2568,7 +2584,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2587,8 +2603,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="60">
+      <c r="A18" s="80"/>
+      <c r="B18" s="57">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2606,10 +2622,10 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="62"/>
+      <c r="B19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2630,7 +2646,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -2649,37 +2665,37 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60">
+      <c r="A22" s="58"/>
+      <c r="B22" s="57">
         <v>3</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="76">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="80"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -2699,21 +2715,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2721,6 +2722,21 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2733,7 +2749,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2762,14 +2778,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2801,7 +2817,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2822,7 +2838,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2841,33 +2857,43 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2880,7 +2906,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2908,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2919,17 +2945,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2939,14 +2965,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -2978,7 +3004,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2999,7 +3025,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3018,7 +3044,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3037,7 +3063,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3056,7 +3082,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -3077,7 +3103,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3096,7 +3122,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3113,7 +3139,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -3151,7 +3177,7 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="44">
         <v>2</v>
       </c>
@@ -3170,7 +3196,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="41">
         <v>3</v>
       </c>
@@ -3189,13 +3215,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="58"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -3216,7 +3242,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -3235,7 +3261,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3254,7 +3280,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -3301,17 +3327,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3321,14 +3347,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3360,7 +3386,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3379,7 +3405,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3396,7 +3422,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3413,7 +3439,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -3432,7 +3458,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3449,7 +3475,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3485,7 +3511,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -3502,7 +3528,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -3621,14 +3647,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3660,7 +3686,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3681,7 +3707,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3700,7 +3726,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3719,7 +3745,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3738,7 +3764,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3759,7 +3785,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3778,7 +3804,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3797,7 +3823,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -4003,14 +4029,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4042,7 +4068,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4063,7 +4089,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="35">
         <v>2</v>
       </c>
@@ -4082,71 +4108,71 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="56">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="62">
+        <v>1</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="71" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="69">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="56">
-        <v>1</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="62">
+        <v>1</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="71" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="69">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4167,7 +4193,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4186,7 +4212,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4283,18 +4309,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4302,6 +4316,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4343,14 +4369,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4382,7 +4408,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4403,7 +4429,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4422,7 +4448,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="35">
         <v>3</v>
       </c>
@@ -4441,7 +4467,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4460,7 +4486,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4481,7 +4507,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4500,7 +4526,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4519,7 +4545,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4540,7 +4566,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4559,7 +4585,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="35">
         <v>3</v>
       </c>
@@ -4578,7 +4604,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4716,14 +4742,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4755,7 +4781,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4776,7 +4802,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4795,7 +4821,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4814,7 +4840,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="35">
         <v>4</v>
       </c>
@@ -4833,7 +4859,7 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4854,7 +4880,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4873,7 +4899,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>
@@ -4884,7 +4910,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4905,7 +4931,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4924,7 +4950,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4943,7 +4969,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="35">
         <v>4</v>
       </c>
@@ -5130,14 +5156,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5285,7 +5311,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="31">
@@ -5306,7 +5332,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="31">
         <v>2</v>
       </c>
@@ -5325,7 +5351,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="31">
         <v>3</v>
       </c>
@@ -5344,7 +5370,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="31">
         <v>4</v>
       </c>
@@ -5422,7 +5448,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="31">
@@ -5443,7 +5469,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="31">
         <v>2</v>
       </c>
@@ -5462,7 +5488,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="31">
         <v>3</v>
       </c>
@@ -5481,7 +5507,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="31">
         <v>4</v>
       </c>
@@ -5552,14 +5578,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589192A-F6AD-4B3B-A2EE-13B78CBF94FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F73EB-AAA6-468E-B147-55C3A8542FDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="224">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -723,6 +723,10 @@
   </si>
   <si>
     <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统上线，上线后测试。既有系统第三方登录接口修改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1097,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,18 +1145,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,20 +1166,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,17 +1475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1485,14 +1495,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1524,7 +1534,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1547,7 +1557,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1568,7 +1578,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1610,7 +1620,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1633,7 +1643,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1654,7 +1664,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1675,7 +1685,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1696,7 +1706,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1719,7 +1729,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1740,7 +1750,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35">
         <v>3</v>
       </c>
@@ -1763,7 +1773,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1784,7 +1794,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1807,7 +1817,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1828,7 +1838,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1881,17 +1891,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1901,14 +1911,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1940,7 +1950,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1961,7 +1971,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -1980,7 +1990,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1999,7 +2009,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2018,7 +2028,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -2035,7 +2045,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -2056,7 +2066,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2075,7 +2085,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2094,7 +2104,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2132,7 +2142,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2153,7 +2163,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2172,7 +2182,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2212,7 +2222,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2231,7 +2241,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2280,17 +2290,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2300,14 +2310,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2339,7 +2349,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2360,7 +2370,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2379,7 +2389,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2398,7 +2408,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2417,7 +2427,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2436,7 +2446,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4">
@@ -2476,7 +2486,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -2495,37 +2505,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="57">
+      <c r="A12" s="59"/>
+      <c r="B12" s="58">
         <v>3</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="76">
-        <v>1</v>
-      </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="G12" s="80">
+        <v>1</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2544,7 +2554,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="4">
         <v>5</v>
       </c>
@@ -2563,7 +2573,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="79" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2584,7 +2594,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2603,8 +2613,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="57">
+      <c r="A18" s="79"/>
+      <c r="B18" s="58">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2622,10 +2632,10 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="59"/>
+      <c r="B19" s="60"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2646,7 +2656,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -2665,37 +2675,37 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57">
+      <c r="A22" s="59"/>
+      <c r="B22" s="58">
         <v>3</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="80">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="77"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -2715,6 +2725,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2722,21 +2747,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,43 +2759,43 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2794,7 +2804,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2817,7 +2827,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2838,7 +2848,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2857,11 +2867,11 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="82" t="s">
         <v>220</v>
       </c>
       <c r="D6" s="4"/>
@@ -2875,12 +2885,14 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="82" t="s">
+        <v>223</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
@@ -2893,7 +2905,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2906,7 +2918,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2945,17 +2957,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2965,14 +2977,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3004,7 +3016,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3025,7 +3037,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3044,7 +3056,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3063,7 +3075,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3082,7 +3094,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -3103,7 +3115,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3122,7 +3134,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3139,7 +3151,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -3156,7 +3168,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="41">
@@ -3177,7 +3189,7 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="44">
         <v>2</v>
       </c>
@@ -3196,7 +3208,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="41">
         <v>3</v>
       </c>
@@ -3215,13 +3227,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -3242,7 +3254,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -3261,7 +3273,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3280,7 +3292,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -3327,17 +3339,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3347,14 +3359,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3386,7 +3398,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3405,7 +3417,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3422,7 +3434,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3439,7 +3451,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -3458,7 +3470,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3475,7 +3487,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3492,7 +3504,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -3511,7 +3523,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -3528,7 +3540,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -3545,7 +3557,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -3564,7 +3576,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -3581,7 +3593,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3627,17 +3639,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3647,14 +3659,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3686,7 +3698,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3707,7 +3719,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3726,7 +3738,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3745,7 +3757,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3764,7 +3776,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3785,7 +3797,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3804,7 +3816,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3823,7 +3835,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3842,7 +3854,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3863,7 +3875,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3901,7 +3913,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3920,7 +3932,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3941,7 +3953,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -3960,7 +3972,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -4009,17 +4021,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4029,14 +4041,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4068,7 +4080,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4089,7 +4101,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="35">
         <v>2</v>
       </c>
@@ -4108,71 +4120,71 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="63">
         <v>1</v>
       </c>
       <c r="C6" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="70" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="71">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="72"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="69"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="63">
         <v>1</v>
       </c>
       <c r="C8" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="71">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="72"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4193,7 +4205,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4212,7 +4224,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4309,6 +4321,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4316,18 +4340,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4349,17 +4361,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4369,14 +4381,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4408,7 +4420,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4429,7 +4441,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4448,7 +4460,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="35">
         <v>3</v>
       </c>
@@ -4467,7 +4479,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4486,7 +4498,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4507,7 +4519,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4526,7 +4538,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4545,7 +4557,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4566,7 +4578,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4585,7 +4597,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="35">
         <v>3</v>
       </c>
@@ -4604,7 +4616,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4623,7 +4635,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4644,7 +4656,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4663,7 +4675,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4722,17 +4734,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4742,14 +4754,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4781,7 +4793,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4802,7 +4814,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4821,7 +4833,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4840,7 +4852,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="35">
         <v>4</v>
       </c>
@@ -4859,7 +4871,7 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4880,7 +4892,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4899,7 +4911,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>
@@ -4910,7 +4922,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4931,7 +4943,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4950,7 +4962,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4969,7 +4981,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="35">
         <v>4</v>
       </c>
@@ -4988,7 +5000,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -5009,7 +5021,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -5028,7 +5040,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -5047,7 +5059,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -5066,7 +5078,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -5085,7 +5097,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -5136,17 +5148,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5156,14 +5168,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5195,7 +5207,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -5216,7 +5228,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5235,7 +5247,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5254,7 +5266,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5273,7 +5285,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -5292,7 +5304,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -5311,7 +5323,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="31">
@@ -5332,7 +5344,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="31">
         <v>2</v>
       </c>
@@ -5351,7 +5363,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="31">
         <v>3</v>
       </c>
@@ -5370,7 +5382,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="31">
         <v>4</v>
       </c>
@@ -5389,7 +5401,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -5410,7 +5422,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -5429,7 +5441,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -5448,7 +5460,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="31">
@@ -5469,7 +5481,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="31">
         <v>2</v>
       </c>
@@ -5488,7 +5500,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="31">
         <v>3</v>
       </c>
@@ -5507,7 +5519,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="31">
         <v>4</v>
       </c>
@@ -5558,17 +5570,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5578,14 +5590,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5617,7 +5629,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5638,7 +5650,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5657,7 +5669,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5676,7 +5688,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5695,7 +5707,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -5714,7 +5726,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5735,7 +5747,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5754,7 +5766,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5773,7 +5785,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5792,7 +5804,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5813,7 +5825,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5832,7 +5844,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5851,7 +5863,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5872,7 +5884,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F73EB-AAA6-468E-B147-55C3A8542FDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777627B4-268E-4D0F-A9D2-4100FA7D4ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="226">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -727,6 +727,14 @@
   </si>
   <si>
     <t>会员系统上线，上线后测试。既有系统第三方登录接口修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理邮件正文发送不成功问题，站内信邮件附件统一路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1100,6 +1108,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,18 +1156,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,15 +1191,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,17 +1483,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1495,14 +1503,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1534,7 +1542,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1557,7 +1565,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1578,7 +1586,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1599,7 +1607,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1620,7 +1628,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1643,7 +1651,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1664,7 +1672,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1685,7 +1693,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1706,7 +1714,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1729,7 +1737,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1750,7 +1758,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="35">
         <v>3</v>
       </c>
@@ -1773,7 +1781,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1794,7 +1802,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1817,7 +1825,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1838,7 +1846,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1891,17 +1899,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1911,14 +1919,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1950,7 +1958,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1971,7 +1979,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -1990,7 +1998,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2009,7 +2017,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2028,7 +2036,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -2045,7 +2053,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -2066,7 +2074,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2085,7 +2093,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2104,7 +2112,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2123,7 +2131,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2142,7 +2150,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2163,7 +2171,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2182,7 +2190,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2201,7 +2209,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2222,7 +2230,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2241,7 +2249,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2290,17 +2298,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2310,14 +2318,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2349,7 +2357,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2370,7 +2378,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2389,7 +2397,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2408,7 +2416,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2427,7 +2435,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2446,7 +2454,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2465,7 +2473,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4">
@@ -2486,7 +2494,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -2505,37 +2513,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="58">
+      <c r="A12" s="60"/>
+      <c r="B12" s="59">
         <v>3</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58" t="s">
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="80">
-        <v>1</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="G12" s="78">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2554,7 +2562,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="4">
         <v>5</v>
       </c>
@@ -2573,7 +2581,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2594,7 +2602,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2613,8 +2621,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="58">
+      <c r="A18" s="82"/>
+      <c r="B18" s="59">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2632,10 +2640,10 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="60"/>
+      <c r="B19" s="61"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2656,7 +2664,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -2675,37 +2683,37 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="58">
+      <c r="A22" s="60"/>
+      <c r="B22" s="59">
         <v>3</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="78">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="81"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -2725,21 +2733,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2747,6 +2740,21 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,7 +2767,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2768,17 +2776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2788,14 +2796,14 @@
       <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2827,7 +2835,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2848,7 +2856,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2867,11 +2875,11 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="55" t="s">
         <v>220</v>
       </c>
       <c r="D6" s="4"/>
@@ -2886,11 +2894,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="55" t="s">
         <v>223</v>
       </c>
       <c r="D7" s="8"/>
@@ -2905,20 +2913,26 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2957,17 +2971,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2977,14 +2991,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3016,7 +3030,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3037,7 +3051,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3056,7 +3070,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3075,7 +3089,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3094,7 +3108,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -3115,7 +3129,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3134,7 +3148,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3151,7 +3165,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -3168,7 +3182,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="41">
@@ -3189,7 +3203,7 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="44">
         <v>2</v>
       </c>
@@ -3208,7 +3222,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="41">
         <v>3</v>
       </c>
@@ -3227,13 +3241,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -3254,7 +3268,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -3273,7 +3287,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3292,7 +3306,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -3339,17 +3353,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3359,14 +3373,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3398,7 +3412,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3417,7 +3431,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3434,7 +3448,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3451,7 +3465,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -3470,7 +3484,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3487,7 +3501,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3504,7 +3518,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -3523,7 +3537,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -3540,7 +3554,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -3557,7 +3571,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -3576,7 +3590,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -3593,7 +3607,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3639,17 +3653,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3659,14 +3673,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3698,7 +3712,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3719,7 +3733,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3738,7 +3752,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3757,7 +3771,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3776,7 +3790,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3797,7 +3811,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3816,7 +3830,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3835,7 +3849,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3854,7 +3868,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3875,7 +3889,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3894,7 +3908,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3913,7 +3927,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3932,7 +3946,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3953,7 +3967,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -3972,7 +3986,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -4021,17 +4035,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4041,14 +4055,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4080,7 +4094,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4101,7 +4115,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="35">
         <v>2</v>
       </c>
@@ -4120,18 +4134,18 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="63">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="64">
+        <v>1</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="73" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="72" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="71">
@@ -4141,29 +4155,29 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="71"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="63">
-        <v>1</v>
-      </c>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="64">
+        <v>1</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="73" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="72" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="71">
@@ -4173,18 +4187,18 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="73"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="71"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4205,7 +4219,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4224,7 +4238,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4321,18 +4335,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4340,6 +4342,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4361,17 +4375,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4381,14 +4395,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4420,7 +4434,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4441,7 +4455,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4460,7 +4474,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="35">
         <v>3</v>
       </c>
@@ -4479,7 +4493,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4498,7 +4512,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4519,7 +4533,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4538,7 +4552,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4557,7 +4571,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4578,7 +4592,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4597,7 +4611,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="35">
         <v>3</v>
       </c>
@@ -4616,7 +4630,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4635,7 +4649,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4656,7 +4670,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4675,7 +4689,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4734,17 +4748,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4754,14 +4768,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4793,7 +4807,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4814,7 +4828,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4833,7 +4847,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4852,7 +4866,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="35">
         <v>4</v>
       </c>
@@ -4871,7 +4885,7 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4892,7 +4906,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4911,7 +4925,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>
@@ -4922,7 +4936,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4943,7 +4957,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4962,7 +4976,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -4981,7 +4995,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="35">
         <v>4</v>
       </c>
@@ -5000,7 +5014,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -5021,7 +5035,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -5040,7 +5054,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -5059,7 +5073,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -5078,7 +5092,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -5097,7 +5111,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -5148,17 +5162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5168,14 +5182,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5207,7 +5221,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -5228,7 +5242,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5247,7 +5261,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5266,7 +5280,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5285,7 +5299,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -5304,7 +5318,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -5323,7 +5337,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="31">
@@ -5344,7 +5358,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="31">
         <v>2</v>
       </c>
@@ -5363,7 +5377,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="31">
         <v>3</v>
       </c>
@@ -5382,7 +5396,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="31">
         <v>4</v>
       </c>
@@ -5401,7 +5415,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -5422,7 +5436,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -5441,7 +5455,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -5460,7 +5474,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="31">
@@ -5481,7 +5495,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="31">
         <v>2</v>
       </c>
@@ -5500,7 +5514,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="31">
         <v>3</v>
       </c>
@@ -5519,7 +5533,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="31">
         <v>4</v>
       </c>
@@ -5570,17 +5584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5590,14 +5604,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5629,7 +5643,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5650,7 +5664,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5669,7 +5683,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5688,7 +5702,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5707,7 +5721,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -5726,7 +5740,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5747,7 +5761,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5766,7 +5780,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5785,7 +5799,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5804,7 +5818,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5825,7 +5839,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5844,7 +5858,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5863,7 +5877,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5884,7 +5898,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777627B4-268E-4D0F-A9D2-4100FA7D4ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A887F6-DE13-4EDD-8C65-4A1870AE0294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="228">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -735,6 +735,14 @@
   </si>
   <si>
     <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理会员系统邮件群发发送失败问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1156,18 +1164,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,19 +1185,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2517,7 +2525,7 @@
       <c r="B12" s="59">
         <v>3</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>204</v>
       </c>
       <c r="D12" s="59"/>
@@ -2525,7 +2533,7 @@
       <c r="F12" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="81">
         <v>1</v>
       </c>
       <c r="H12" s="59"/>
@@ -2534,11 +2542,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="61"/>
-      <c r="C13" s="81"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
       <c r="F13" s="61"/>
-      <c r="G13" s="79"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
     </row>
@@ -2581,7 +2589,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2602,7 +2610,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2621,7 +2629,7 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="59">
         <v>3</v>
       </c>
@@ -2687,7 +2695,7 @@
       <c r="B22" s="59">
         <v>3</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="78" t="s">
         <v>213</v>
       </c>
       <c r="D22" s="59"/>
@@ -2695,7 +2703,7 @@
       <c r="F22" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="81">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
@@ -2704,11 +2712,11 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="60"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="81"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
-      <c r="G23" s="79"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
@@ -2733,6 +2741,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2740,21 +2763,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,7 +2775,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2936,11 +2944,17 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
@@ -4134,71 +4148,71 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="64">
         <v>1</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="72">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="64"/>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="64">
         <v>1</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="72">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="64"/>
-      <c r="C9" s="74"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4219,7 +4233,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4238,7 +4252,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4335,6 +4349,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4342,18 +4368,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4512,7 +4526,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4533,7 +4547,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4552,7 +4566,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4885,7 +4899,7 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4906,7 +4920,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4925,7 +4939,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A887F6-DE13-4EDD-8C65-4A1870AE0294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB822BE5-8ADC-4985-9934-16C84CB48264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="6.3-6.6" sheetId="24" r:id="rId10"/>
     <sheet name="6.10-6.14" sheetId="25" r:id="rId11"/>
     <sheet name="6.17-6.21" sheetId="26" r:id="rId12"/>
+    <sheet name="6.24-6.28" sheetId="27" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="236">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -726,10 +727,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>会员系统上线，上线后测试。既有系统第三方登录接口修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>处理邮件正文发送不成功问题，站内信邮件附件统一路径</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -743,6 +740,42 @@
   </si>
   <si>
     <t>处理会员系统邮件群发发送失败问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统上线，上线后测试。既有系统第三方登录接口 修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔健</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：6.24-6.28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会确认专家抽取接口任务抽取需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与王主任沟通任务专家抽取自动抽取、手动抽取流程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统上线后问题修改确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于协会提出的针对会员系统上线后续修改的内容修改后与协会凌毅确认，周二凌毅不在公司，续周三再发给他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库开发功能测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库系统专家导入、添加临时专家功能测试。专家抽取部分功能测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1151,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,17 +1536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1511,14 +1556,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1550,7 +1595,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1573,7 +1618,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1594,7 +1639,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1615,7 +1660,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1636,7 +1681,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1659,7 +1704,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1680,7 +1725,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1701,7 +1746,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1722,7 +1767,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1745,7 +1790,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1766,7 +1811,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="35">
         <v>3</v>
       </c>
@@ -1789,7 +1834,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1810,7 +1855,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1833,7 +1878,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1854,7 +1899,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1907,17 +1952,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1927,14 +1972,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1966,7 +2011,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -1987,7 +2032,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2006,7 +2051,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2025,7 +2070,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2044,7 +2089,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -2061,7 +2106,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -2082,7 +2127,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2101,7 +2146,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2120,7 +2165,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2139,7 +2184,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2158,7 +2203,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2179,7 +2224,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2198,7 +2243,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2217,7 +2262,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2238,7 +2283,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2257,7 +2302,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2306,17 +2351,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2326,14 +2371,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2365,7 +2410,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2386,7 +2431,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2405,7 +2450,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2424,7 +2469,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2443,7 +2488,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2462,7 +2507,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2481,7 +2526,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4">
@@ -2502,7 +2547,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -2521,37 +2566,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="59">
+      <c r="A12" s="64"/>
+      <c r="B12" s="63">
         <v>3</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="81">
-        <v>1</v>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="85">
+        <v>1</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2570,7 +2615,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="4">
         <v>5</v>
       </c>
@@ -2589,7 +2634,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2610,7 +2655,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2629,8 +2674,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="59">
+      <c r="A18" s="84"/>
+      <c r="B18" s="63">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2648,10 +2693,10 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
+      <c r="B19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2672,7 +2717,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -2691,37 +2736,37 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="59">
+      <c r="A22" s="64"/>
+      <c r="B22" s="63">
         <v>3</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="85">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="82"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -2774,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C43C04-8027-43DC-9F59-4B343F5949FE}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2784,17 +2829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2804,14 +2849,14 @@
       <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2843,7 +2888,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2864,7 +2909,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2883,7 +2928,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2902,12 +2947,12 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>223</v>
+      <c r="C7" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2921,17 +2966,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -2940,21 +2985,199 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7152BFA8-7B14-4502-960E-9FA9BAFFD624}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
@@ -2985,17 +3208,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3005,14 +3228,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3044,7 +3267,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3065,7 +3288,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3084,7 +3307,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3103,7 +3326,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3122,7 +3345,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -3143,7 +3366,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3162,7 +3385,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3179,7 +3402,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -3196,7 +3419,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="41">
@@ -3217,7 +3440,7 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="44">
         <v>2</v>
       </c>
@@ -3236,7 +3459,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="41">
         <v>3</v>
       </c>
@@ -3255,13 +3478,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="5">
@@ -3282,7 +3505,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -3301,7 +3524,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3320,7 +3543,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="4">
         <v>4</v>
       </c>
@@ -3367,17 +3590,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3387,14 +3610,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3426,7 +3649,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3445,7 +3668,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3462,7 +3685,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3479,7 +3702,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2">
@@ -3498,7 +3721,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3515,7 +3738,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3532,7 +3755,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
@@ -3551,7 +3774,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -3568,7 +3791,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="22">
         <v>3</v>
       </c>
@@ -3585,7 +3808,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4">
@@ -3604,7 +3827,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -3621,7 +3844,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -3667,17 +3890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3687,14 +3910,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -3726,7 +3949,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -3747,7 +3970,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3766,7 +3989,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3785,7 +4008,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3804,7 +4027,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
@@ -3825,7 +4048,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3844,7 +4067,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3863,7 +4086,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3882,7 +4105,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="5">
@@ -3903,7 +4126,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -3922,7 +4145,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -3941,7 +4164,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -3960,7 +4183,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
@@ -3981,7 +4204,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -4000,7 +4223,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -4049,17 +4272,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4069,14 +4292,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4108,7 +4331,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4129,7 +4352,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="35">
         <v>2</v>
       </c>
@@ -4148,71 +4371,71 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="64">
-        <v>1</v>
-      </c>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="68">
+        <v>1</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="74" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="76">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="72"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="64">
-        <v>1</v>
-      </c>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="68">
+        <v>1</v>
+      </c>
+      <c r="C8" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="74" t="s">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="76">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="72"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4233,7 +4456,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4252,7 +4475,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4389,17 +4612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4409,14 +4632,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4448,7 +4671,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4469,7 +4692,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4488,7 +4711,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="35">
         <v>3</v>
       </c>
@@ -4507,7 +4730,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4526,7 +4749,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4547,7 +4770,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4566,7 +4789,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4585,7 +4808,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4606,7 +4829,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4625,7 +4848,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="35">
         <v>3</v>
       </c>
@@ -4644,7 +4867,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -4663,7 +4886,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -4684,7 +4907,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4703,7 +4926,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -4762,17 +4985,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -4782,14 +5005,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -4821,7 +5044,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -4842,7 +5065,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -4861,7 +5084,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4880,7 +5103,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="35">
         <v>4</v>
       </c>
@@ -4899,7 +5122,7 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4920,7 +5143,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4939,7 +5162,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>
@@ -4950,7 +5173,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
@@ -4971,7 +5194,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -4990,7 +5213,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -5009,7 +5232,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="35">
         <v>4</v>
       </c>
@@ -5028,7 +5251,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -5049,7 +5272,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -5068,7 +5291,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -5087,7 +5310,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -5106,7 +5329,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
@@ -5125,7 +5348,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -5176,17 +5399,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5196,14 +5419,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5235,7 +5458,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -5256,7 +5479,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5275,7 +5498,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5294,7 +5517,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5313,7 +5536,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -5332,7 +5555,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -5351,7 +5574,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="31">
@@ -5372,7 +5595,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="31">
         <v>2</v>
       </c>
@@ -5391,7 +5614,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="31">
         <v>3</v>
       </c>
@@ -5410,7 +5633,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="31">
         <v>4</v>
       </c>
@@ -5429,7 +5652,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -5450,7 +5673,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -5469,7 +5692,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>3</v>
       </c>
@@ -5488,7 +5711,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="31">
@@ -5509,7 +5732,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="31">
         <v>2</v>
       </c>
@@ -5528,7 +5751,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="31">
         <v>3</v>
       </c>
@@ -5547,7 +5770,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="31">
         <v>4</v>
       </c>
@@ -5598,17 +5821,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5618,14 +5841,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -5657,7 +5880,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="72" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5678,7 +5901,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5697,7 +5920,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5716,7 +5939,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5735,7 +5958,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -5754,7 +5977,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -5775,7 +5998,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -5794,7 +6017,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -5813,7 +6036,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -5832,7 +6055,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4">
@@ -5853,7 +6076,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -5872,7 +6095,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -5891,7 +6114,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4">
@@ -5912,7 +6135,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsq11\Desktop\周报\weekReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qiao\Desktop\周报\weekReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB822BE5-8ADC-4985-9934-16C84CB48264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="781" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="3.25-3.29" sheetId="13" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="242">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -778,11 +777,35 @@
     <t>专家库系统专家导入、添加临时专家功能测试。专家抽取部分功能测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>处理专家库代码jar包冲突问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>换电脑后发现专家库项目日志jar包冲突，查看jar包依赖关系后发现hadoop的jar包包含日志包的依赖，删除Hadoopjar包解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家库系统增加接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协会王主任确认后，任务、活动功能增加删除、编辑接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
@@ -1209,18 +1232,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,6 +1253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,12 +1266,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,23 +1542,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.25" style="47" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="9" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="9" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="45" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="45" customFormat="1" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1571,7 @@
       <c r="H1" s="66"/>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1565,7 +1588,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="46" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1640,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -1638,7 +1661,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -1659,7 +1682,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1680,7 +1703,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1726,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>2</v>
@@ -1724,7 +1747,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -1745,7 +1768,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="46" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="2">
         <v>4</v>
@@ -1766,7 +1789,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1812,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -1810,7 +1833,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="35">
         <v>3</v>
@@ -1833,7 +1856,7 @@
       </c>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="2">
         <v>4</v>
@@ -1854,7 +1877,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1900,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="8">
         <v>2</v>
@@ -1898,7 +1921,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="8">
         <v>3</v>
@@ -1938,20 +1961,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1987,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1981,7 +2004,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +2054,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="4">
         <v>2</v>
@@ -2050,7 +2073,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" s="4">
         <v>3</v>
@@ -2069,7 +2092,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -2088,7 +2111,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
@@ -2105,7 +2128,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2149,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>2</v>
@@ -2145,7 +2168,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>3</v>
@@ -2164,7 +2187,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>4</v>
@@ -2183,7 +2206,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>5</v>
@@ -2202,7 +2225,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2246,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="9">
         <v>2</v>
@@ -2242,7 +2265,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" s="9">
         <v>3</v>
@@ -2261,7 +2284,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
         <v>23</v>
       </c>
@@ -2282,7 +2305,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2301,7 +2324,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
       <c r="B19" s="9">
         <v>3</v>
@@ -2337,20 +2360,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
-    <col min="6" max="7" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2386,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2380,7 +2403,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2409,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
@@ -2430,7 +2453,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="4">
         <v>2</v>
@@ -2449,7 +2472,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="4">
         <v>3</v>
@@ -2468,7 +2491,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -2487,7 +2510,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="9">
         <v>5</v>
@@ -2506,7 +2529,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="9">
         <v>6</v>
@@ -2525,7 +2548,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
@@ -2546,7 +2569,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="4">
         <v>2</v>
@@ -2565,12 +2588,12 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="63">
         <v>3</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="84" t="s">
         <v>204</v>
       </c>
       <c r="D12" s="63"/>
@@ -2578,24 +2601,24 @@
       <c r="F12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="82">
         <v>1</v>
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="83"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
-      <c r="G13" s="86"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="65"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="4">
         <v>4</v>
@@ -2614,7 +2637,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="4">
         <v>5</v>
@@ -2633,8 +2656,8 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="86" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2654,8 +2677,8 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2673,8 +2696,8 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
       <c r="B18" s="63">
         <v>3</v>
       </c>
@@ -2692,10 +2715,10 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2739,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="4">
         <v>2</v>
@@ -2735,12 +2758,12 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="63">
         <v>3</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="84" t="s">
         <v>213</v>
       </c>
       <c r="D22" s="63"/>
@@ -2748,24 +2771,24 @@
       <c r="F22" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="82">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
-      <c r="G23" s="86"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="4">
         <v>4</v>
@@ -2786,21 +2809,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2808,6 +2816,21 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2816,19 +2839,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C43C04-8027-43DC-9F59-4B343F5949FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2864,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2858,7 +2881,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2887,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>13</v>
       </c>
@@ -2908,7 +2931,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="4">
         <v>2</v>
@@ -2927,7 +2950,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="4">
         <v>3</v>
@@ -2946,7 +2969,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -2965,7 +2988,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="9">
         <v>5</v>
@@ -2984,7 +3007,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="9">
         <v>6</v>
@@ -3016,21 +3039,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7152BFA8-7B14-4502-960E-9FA9BAFFD624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="47" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3066,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="56" t="s">
         <v>1</v>
@@ -3060,7 +3083,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>228</v>
       </c>
@@ -3110,7 +3133,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="57"/>
       <c r="C5" s="5" t="s">
@@ -3129,7 +3152,7 @@
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="57"/>
       <c r="C6" s="55" t="s">
@@ -3148,29 +3171,45 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="57"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>237</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>240</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
@@ -3194,20 +3233,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3259,7 @@
       <c r="H1" s="66"/>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3237,7 +3276,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
@@ -3287,7 +3326,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -3306,7 +3345,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -3325,7 +3364,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -3344,7 +3383,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>23</v>
       </c>
@@ -3365,7 +3404,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
@@ -3384,7 +3423,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -3401,7 +3440,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="2">
         <v>4</v>
@@ -3418,7 +3457,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>30</v>
       </c>
@@ -3439,7 +3478,7 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="44">
         <v>2</v>
@@ -3458,7 +3497,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="41">
         <v>3</v>
@@ -3477,13 +3516,13 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>37</v>
       </c>
@@ -3504,7 +3543,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="5">
         <v>2</v>
@@ -3523,7 +3562,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="5">
         <v>3</v>
@@ -3542,7 +3581,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="4">
         <v>4</v>
@@ -3576,20 +3615,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3641,7 @@
       <c r="H1" s="66"/>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3619,7 +3658,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +3687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
@@ -3667,7 +3706,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -3684,7 +3723,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="71"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -3701,7 +3740,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3759,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="2">
         <v>2</v>
@@ -3737,7 +3776,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="2">
         <v>3</v>
@@ -3754,7 +3793,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
         <v>30</v>
       </c>
@@ -3773,7 +3812,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="5">
         <v>2</v>
@@ -3790,7 +3829,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="22">
         <v>3</v>
@@ -3807,7 +3846,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>37</v>
       </c>
@@ -3826,7 +3865,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>2</v>
@@ -3843,7 +3882,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>3</v>
@@ -3877,19 +3916,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3941,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3919,7 +3958,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -3948,7 +3987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +4008,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -3988,7 +4027,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -4007,7 +4046,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -4026,7 +4065,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>37</v>
       </c>
@@ -4047,7 +4086,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>2</v>
@@ -4066,7 +4105,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -4085,7 +4124,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="4">
         <v>4</v>
@@ -4104,7 +4143,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>30</v>
       </c>
@@ -4125,7 +4164,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="5">
         <v>2</v>
@@ -4144,7 +4183,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" s="5">
         <v>3</v>
@@ -4163,7 +4202,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="5">
         <v>4</v>
@@ -4182,7 +4221,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
         <v>23</v>
       </c>
@@ -4203,7 +4242,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" s="5">
         <v>2</v>
@@ -4222,7 +4261,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="5">
         <v>3</v>
@@ -4258,20 +4297,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4323,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4301,7 +4340,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -4330,7 +4369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
@@ -4351,7 +4390,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="35">
         <v>2</v>
@@ -4370,72 +4409,72 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="68">
         <v>1</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="75">
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
       <c r="B7" s="68"/>
-      <c r="C7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="68">
         <v>1</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="75">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="77"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
@@ -4455,8 +4494,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -4474,8 +4513,8 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -4493,7 +4532,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
@@ -4504,7 +4543,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
@@ -4515,7 +4554,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -4526,7 +4565,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -4537,7 +4576,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -4548,7 +4587,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -4559,7 +4598,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -4572,18 +4611,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4591,6 +4618,18 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4599,19 +4638,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4663,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4641,7 +4680,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -4670,7 +4709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
@@ -4691,7 +4730,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -4710,7 +4749,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="35">
         <v>3</v>
@@ -4729,7 +4768,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -4748,8 +4787,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -4769,8 +4808,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -4788,8 +4827,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -4807,7 +4846,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>23</v>
       </c>
@@ -4828,7 +4867,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>2</v>
@@ -4847,7 +4886,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="35">
         <v>3</v>
@@ -4866,7 +4905,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="2">
         <v>4</v>
@@ -4885,7 +4924,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
@@ -4906,7 +4945,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="5">
         <v>2</v>
@@ -4925,7 +4964,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="5">
         <v>3</v>
@@ -4944,7 +4983,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -4972,19 +5011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4997,7 +5036,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5014,7 +5053,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
@@ -5064,7 +5103,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -5083,7 +5122,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -5102,7 +5141,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="35">
         <v>4</v>
@@ -5121,8 +5160,8 @@
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -5142,8 +5181,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -5161,8 +5200,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+    <row r="10" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="2"/>
       <c r="C10" s="34"/>
       <c r="D10" s="2"/>
@@ -5172,7 +5211,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>23</v>
       </c>
@@ -5193,7 +5232,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>2</v>
@@ -5212,7 +5251,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="2">
         <v>3</v>
@@ -5231,7 +5270,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="35">
         <v>4</v>
@@ -5250,7 +5289,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>13</v>
       </c>
@@ -5271,7 +5310,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="5">
         <v>2</v>
@@ -5290,7 +5329,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="5">
         <v>3</v>
@@ -5309,7 +5348,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="5">
         <v>4</v>
@@ -5328,7 +5367,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="5">
         <v>5</v>
@@ -5347,7 +5386,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="5">
         <v>6</v>
@@ -5383,22 +5422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="18"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5450,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5428,7 +5467,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5457,7 +5496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>13</v>
       </c>
@@ -5478,7 +5517,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -5497,7 +5536,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="5">
         <v>3</v>
@@ -5516,7 +5555,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="5">
         <v>4</v>
@@ -5535,7 +5574,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="5">
         <v>5</v>
@@ -5554,7 +5593,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="4">
         <v>6</v>
@@ -5573,7 +5612,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
@@ -5594,7 +5633,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="31">
         <v>2</v>
@@ -5613,7 +5652,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="31">
         <v>3</v>
@@ -5632,7 +5671,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="31">
         <v>4</v>
@@ -5651,7 +5690,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
@@ -5672,7 +5711,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>2</v>
@@ -5691,7 +5730,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>3</v>
@@ -5710,7 +5749,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>23</v>
       </c>
@@ -5731,7 +5770,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="31">
         <v>2</v>
@@ -5750,7 +5789,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="31">
         <v>3</v>
@@ -5769,7 +5808,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="31">
         <v>4</v>
@@ -5805,22 +5844,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="18"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5872,7 @@
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5850,7 +5889,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5879,7 +5918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>37</v>
       </c>
@@ -5900,7 +5939,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -5919,7 +5958,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="5">
         <v>3</v>
@@ -5938,7 +5977,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="5">
         <v>4</v>
@@ -5957,7 +5996,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="22">
         <v>5</v>
@@ -5976,7 +6015,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>30</v>
       </c>
@@ -5997,7 +6036,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="4">
         <v>2</v>
@@ -6016,7 +6055,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="81"/>
       <c r="B11" s="4">
         <v>3</v>
@@ -6035,7 +6074,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="4">
         <v>4</v>
@@ -6054,7 +6093,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
@@ -6075,7 +6114,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="4">
         <v>2</v>
@@ -6094,7 +6133,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="4">
         <v>3</v>
@@ -6113,7 +6152,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
         <v>13</v>
       </c>
@@ -6134,7 +6173,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" s="4">
         <v>1</v>
@@ -6153,7 +6192,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
@@ -6164,7 +6203,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>

--- a/技术部周报.xlsx
+++ b/技术部周报.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="248">
   <si>
     <t>2019年度周工作计划</t>
   </si>
@@ -766,10 +766,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>对于协会提出的针对会员系统上线后续修改的内容修改后与协会凌毅确认，周二凌毅不在公司，续周三再发给他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>专家库开发功能测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -799,6 +795,34 @@
   </si>
   <si>
     <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员系统申请表下载无法打开问题处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员申请表下载后打不开，因为原下载使用的是2003版本下载导致文档打不开，改为06版本word下载解决。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>转接库测试后接口开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动接口增加了审核后的短信发送与站内信发送，以及测试过程中发现的问题修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于协会提出的针对会员系统上线后续修改的内容修改后与协会凌毅确认，周二凌毅不在公司，周三再发给他</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,18 +1199,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,18 +1259,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,20 +1280,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,17 +1592,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1579,14 +1612,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1618,7 +1651,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -1641,7 +1674,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1662,7 +1695,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1683,7 +1716,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1704,7 +1737,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
@@ -1727,7 +1760,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1748,7 +1781,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1769,7 +1802,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1790,7 +1823,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2">
@@ -1813,7 +1846,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1834,7 +1867,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="35">
         <v>3</v>
       </c>
@@ -1857,7 +1890,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1878,7 +1911,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8">
@@ -1901,7 +1934,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1922,7 +1955,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
@@ -1975,17 +2008,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1995,14 +2028,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2034,7 +2067,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2055,7 +2088,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2074,7 +2107,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2093,7 +2126,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2112,7 +2145,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>183</v>
@@ -2129,7 +2162,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4">
@@ -2150,7 +2183,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2169,7 +2202,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2188,7 +2221,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -2207,7 +2240,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -2226,7 +2259,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9">
@@ -2247,7 +2280,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
@@ -2266,7 +2299,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -2285,7 +2318,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="74" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9">
@@ -2306,7 +2339,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="9">
         <v>2</v>
       </c>
@@ -2325,7 +2358,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -2374,17 +2407,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2394,14 +2427,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2433,7 +2466,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
@@ -2454,7 +2487,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2473,7 +2506,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2492,7 +2525,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2511,7 +2544,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -2530,7 +2563,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2549,7 +2582,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4">
@@ -2570,7 +2603,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
@@ -2589,37 +2622,37 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="63">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64">
         <v>3</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="82">
-        <v>1</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="G12" s="86">
+        <v>1</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2638,7 +2671,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4">
         <v>5</v>
       </c>
@@ -2657,7 +2690,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="85" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4">
@@ -2678,7 +2711,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="4">
         <v>2</v>
       </c>
@@ -2697,8 +2730,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="63">
+      <c r="A18" s="85"/>
+      <c r="B18" s="64">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2716,10 +2749,10 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
+      <c r="B19" s="66"/>
     </row>
     <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
@@ -2740,7 +2773,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -2759,37 +2792,37 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="63">
+      <c r="A22" s="65"/>
+      <c r="B22" s="64">
         <v>3</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63" t="s">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="86">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="83"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -2809,6 +2842,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2816,21 +2864,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,17 +2885,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <